--- a/Standardized 2.9/v2.9_tags_descriptions.xlsx
+++ b/Standardized 2.9/v2.9_tags_descriptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dairylandlabs-my.sharepoint.com/personal/ktaysom_dairylandlabs_com/Documents/Standardized_XML_3.0/v2.9_documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\GitHub\Standardized_XML\Standardized 2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D74E9847-ED27-4D7B-8233-DF90B635E7E7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E75D10-E2A6-4455-9A52-38906764D524}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$11:$14</definedName>
   </definedNames>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="512">
   <si>
     <t>SP</t>
   </si>
@@ -1565,6 +1565,9 @@
   </si>
   <si>
     <t>Heading for sample information section</t>
+  </si>
+  <si>
+    <t>pH</t>
   </si>
 </sst>
 </file>
@@ -1682,16 +1685,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2031,10 +2034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K291"/>
+  <dimension ref="A1:K292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD99"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2755,7 +2758,7 @@
       <c r="A75" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="18" t="s">
         <v>383</v>
       </c>
       <c r="C75" s="5"/>
@@ -2765,7 +2768,7 @@
       <c r="A76" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B76" s="15"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
@@ -2773,7 +2776,7 @@
       <c r="A77" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B77" s="15"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
     </row>
@@ -2781,17 +2784,17 @@
       <c r="A78" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="15" t="s">
         <v>384</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="15" t="s">
         <v>385</v>
       </c>
       <c r="C79" s="5"/>
@@ -2921,7 +2924,7 @@
       <c r="A92" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="18" t="s">
         <v>398</v>
       </c>
       <c r="C92" s="5"/>
@@ -2931,7 +2934,7 @@
       <c r="A93" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B93" s="15"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
@@ -2939,17 +2942,17 @@
       <c r="A94" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B94" s="15"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="15"/>
+      <c r="B95" s="18"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="15"/>
+      <c r="B96" s="18"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
     </row>
@@ -2957,7 +2960,7 @@
       <c r="A97" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B97" s="15"/>
+      <c r="B97" s="18"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
@@ -4486,7 +4489,7 @@
       <c r="A250" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B250" s="15" t="s">
+      <c r="B250" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C250" s="5"/>
@@ -4496,7 +4499,7 @@
       <c r="A251" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B251" s="15"/>
+      <c r="B251" s="18"/>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
     </row>
@@ -4504,7 +4507,7 @@
       <c r="A252" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B252" s="15"/>
+      <c r="B252" s="18"/>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
     </row>
@@ -4512,7 +4515,7 @@
       <c r="A253" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B253" s="15"/>
+      <c r="B253" s="18"/>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
     </row>
@@ -4520,7 +4523,7 @@
       <c r="A254" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B254" s="15"/>
+      <c r="B254" s="18"/>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
     </row>
@@ -4528,7 +4531,7 @@
       <c r="A255" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B255" s="15"/>
+      <c r="B255" s="18"/>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
     </row>
@@ -4536,7 +4539,7 @@
       <c r="A256" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B256" s="15"/>
+      <c r="B256" s="18"/>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
     </row>
@@ -4544,7 +4547,7 @@
       <c r="A257" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B257" s="15"/>
+      <c r="B257" s="18"/>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
     </row>
@@ -4552,7 +4555,7 @@
       <c r="A258" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B258" s="15"/>
+      <c r="B258" s="18"/>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
     </row>
@@ -4560,7 +4563,7 @@
       <c r="A259" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B259" s="15"/>
+      <c r="B259" s="18"/>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
     </row>
@@ -4568,7 +4571,7 @@
       <c r="A260" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B260" s="15"/>
+      <c r="B260" s="18"/>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
     </row>
@@ -4576,7 +4579,7 @@
       <c r="A261" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B261" s="15"/>
+      <c r="B261" s="18"/>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
     </row>
@@ -4584,7 +4587,7 @@
       <c r="A262" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B262" s="15"/>
+      <c r="B262" s="18"/>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
     </row>
@@ -4592,7 +4595,7 @@
       <c r="A263" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B263" s="15"/>
+      <c r="B263" s="18"/>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
     </row>
@@ -4600,7 +4603,7 @@
       <c r="A264" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B264" s="15"/>
+      <c r="B264" s="18"/>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
     </row>
@@ -4608,7 +4611,7 @@
       <c r="A265" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B265" s="15"/>
+      <c r="B265" s="18"/>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
     </row>
@@ -4666,7 +4669,7 @@
       <c r="A271" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B271" s="15" t="s">
+      <c r="B271" s="18" t="s">
         <v>450</v>
       </c>
       <c r="C271" s="5"/>
@@ -4676,7 +4679,7 @@
       <c r="A272" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B272" s="15"/>
+      <c r="B272" s="18"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
     </row>
@@ -4684,7 +4687,7 @@
       <c r="A273" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B273" s="15"/>
+      <c r="B273" s="18"/>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
     </row>
@@ -4692,7 +4695,7 @@
       <c r="A274" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B274" s="15"/>
+      <c r="B274" s="18"/>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
     </row>
@@ -4700,7 +4703,7 @@
       <c r="A275" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B275" s="15"/>
+      <c r="B275" s="18"/>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
     </row>
@@ -4708,7 +4711,7 @@
       <c r="A276" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B276" s="15"/>
+      <c r="B276" s="18"/>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
     </row>
@@ -4742,7 +4745,7 @@
       <c r="A280" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B280" s="18" t="s">
+      <c r="B280" s="16" t="s">
         <v>452</v>
       </c>
       <c r="C280" s="5"/>
@@ -4752,7 +4755,7 @@
       <c r="A281" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B281" s="18"/>
+      <c r="B281" s="16"/>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
     </row>
@@ -4760,7 +4763,7 @@
       <c r="A282" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B282" s="18"/>
+      <c r="B282" s="16"/>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
     </row>
@@ -4768,7 +4771,7 @@
       <c r="A283" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B283" s="18"/>
+      <c r="B283" s="16"/>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
     </row>
@@ -4776,7 +4779,7 @@
       <c r="A284" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B284" s="18"/>
+      <c r="B284" s="16"/>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
     </row>
@@ -4784,7 +4787,7 @@
       <c r="A285" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B285" s="18"/>
+      <c r="B285" s="16"/>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
     </row>
@@ -4792,7 +4795,7 @@
       <c r="A286" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B286" s="18"/>
+      <c r="B286" s="16"/>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
     </row>
@@ -4800,7 +4803,7 @@
       <c r="A287" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B287" s="18"/>
+      <c r="B287" s="16"/>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
     </row>
@@ -4808,7 +4811,7 @@
       <c r="A288" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B288" s="18"/>
+      <c r="B288" s="16"/>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
     </row>
@@ -4816,7 +4819,7 @@
       <c r="A289" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B289" s="18"/>
+      <c r="B289" s="16"/>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
     </row>
@@ -4839,6 +4842,14 @@
       </c>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>511</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Standardized 2.9/v2.9_tags_descriptions.xlsx
+++ b/Standardized 2.9/v2.9_tags_descriptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\GitHub\Standardized_XML\Standardized 2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E75D10-E2A6-4455-9A52-38906764D524}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018F613B-A3EF-44C9-AA97-09AEEA647A63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="544">
   <si>
     <t>SP</t>
   </si>
@@ -1568,6 +1568,102 @@
   </si>
   <si>
     <t>pH</t>
+  </si>
+  <si>
+    <t>StarchCB</t>
+  </si>
+  <si>
+    <t>NDFCB</t>
+  </si>
+  <si>
+    <t>GPNCB</t>
+  </si>
+  <si>
+    <t>FPNCB</t>
+  </si>
+  <si>
+    <t>Calibrate NDF % DM</t>
+  </si>
+  <si>
+    <t>Calibrate starch %DM</t>
+  </si>
+  <si>
+    <t>Calibrate GPN index</t>
+  </si>
+  <si>
+    <t>Calibrate FPN index</t>
+  </si>
+  <si>
+    <t>DON_3Ac15Ac</t>
+  </si>
+  <si>
+    <t>3 acetyl and 15 acetyl DON ppm</t>
+  </si>
+  <si>
+    <t>T2HT2</t>
+  </si>
+  <si>
+    <t>HT2</t>
+  </si>
+  <si>
+    <t>FUM_B1</t>
+  </si>
+  <si>
+    <t>Fumonisin B1 ppm</t>
+  </si>
+  <si>
+    <t>FUM_B2</t>
+  </si>
+  <si>
+    <t>Fumonisin B2 ppm</t>
+  </si>
+  <si>
+    <t>FUM_B3</t>
+  </si>
+  <si>
+    <t>Fumonisin B3 ppm</t>
+  </si>
+  <si>
+    <t>FusarenonX</t>
+  </si>
+  <si>
+    <t>Nivalenol</t>
+  </si>
+  <si>
+    <t>Neosalaniol</t>
+  </si>
+  <si>
+    <t>DAS</t>
+  </si>
+  <si>
+    <t>OchratoxinA</t>
+  </si>
+  <si>
+    <t>T2 and HT2 ppb</t>
+  </si>
+  <si>
+    <t>HT2 ppb</t>
+  </si>
+  <si>
+    <t>Neosalaniol ppb</t>
+  </si>
+  <si>
+    <t>DAS ppb</t>
+  </si>
+  <si>
+    <t>Nivalenol ppm</t>
+  </si>
+  <si>
+    <t>FusarenonX ppm</t>
+  </si>
+  <si>
+    <t>Ochratoxin ppb</t>
+  </si>
+  <si>
+    <t>Ti</t>
+  </si>
+  <si>
+    <t>Titanium ppm</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1686,6 +1782,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2034,63 +2133,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K292"/>
+  <dimension ref="A1:K308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="93" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="93" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="5"/>
+    <col min="5" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>42123</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>298</v>
       </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>284</v>
       </c>
@@ -2100,7 +2199,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>316</v>
       </c>
@@ -2110,7 +2209,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>332</v>
       </c>
@@ -2120,7 +2219,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>281</v>
       </c>
@@ -2131,7 +2230,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>292</v>
       </c>
@@ -2142,7 +2241,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>282</v>
       </c>
@@ -2153,7 +2252,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>293</v>
       </c>
@@ -2164,7 +2263,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>294</v>
       </c>
@@ -2175,7 +2274,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>295</v>
       </c>
@@ -2186,7 +2285,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>333</v>
       </c>
@@ -2197,7 +2296,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>283</v>
       </c>
@@ -2208,7 +2307,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>186</v>
       </c>
@@ -2219,7 +2318,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>187</v>
       </c>
@@ -2230,7 +2329,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>191</v>
       </c>
@@ -2241,7 +2340,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>228</v>
       </c>
@@ -2252,7 +2351,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -2263,7 +2362,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -2272,7 +2371,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -2280,7 +2379,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>117</v>
       </c>
@@ -2291,7 +2390,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -2299,7 +2398,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -2310,7 +2409,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -2320,7 +2419,7 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
@@ -2330,7 +2429,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>240</v>
       </c>
@@ -2341,7 +2440,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>241</v>
       </c>
@@ -2352,7 +2451,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>118</v>
       </c>
@@ -2363,7 +2462,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -2374,7 +2473,7 @@
       <c r="D37" s="5"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>119</v>
       </c>
@@ -2384,7 +2483,7 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -2395,7 +2494,7 @@
       <c r="D39" s="5"/>
       <c r="E39" s="12"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
@@ -2406,7 +2505,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="12"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,7 +2515,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -2427,7 +2526,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="12"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
@@ -2437,7 +2536,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
@@ -2447,7 +2546,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
@@ -2457,7 +2556,7 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -2467,7 +2566,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>120</v>
       </c>
@@ -2477,7 +2576,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>133</v>
       </c>
@@ -2487,7 +2586,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>192</v>
       </c>
@@ -2497,7 +2596,7 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>230</v>
       </c>
@@ -2507,7 +2606,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>229</v>
       </c>
@@ -2517,7 +2616,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>193</v>
       </c>
@@ -2527,7 +2626,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>132</v>
       </c>
@@ -2537,7 +2636,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>231</v>
       </c>
@@ -2554,7 +2653,7 @@
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>194</v>
       </c>
@@ -2564,7 +2663,7 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>195</v>
       </c>
@@ -2574,7 +2673,7 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>196</v>
       </c>
@@ -2584,7 +2683,7 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>197</v>
       </c>
@@ -2594,7 +2693,7 @@
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>198</v>
       </c>
@@ -2604,7 +2703,7 @@
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>304</v>
       </c>
@@ -2614,7 +2713,7 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -2624,7 +2723,7 @@
       <c r="C61" s="5"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>236</v>
       </c>
@@ -2634,7 +2733,7 @@
       <c r="C62" s="8"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>235</v>
       </c>
@@ -2644,7 +2743,7 @@
       <c r="C63" s="13"/>
       <c r="D63" s="14"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>199</v>
       </c>
@@ -2654,7 +2753,7 @@
       <c r="C64" s="5"/>
       <c r="D64" s="14"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>200</v>
       </c>
@@ -2664,7 +2763,7 @@
       <c r="C65" s="5"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>201</v>
       </c>
@@ -2674,7 +2773,7 @@
       <c r="C66" s="5"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>202</v>
       </c>
@@ -2684,7 +2783,7 @@
       <c r="C67" s="5"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>203</v>
       </c>
@@ -2694,7 +2793,7 @@
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>204</v>
       </c>
@@ -2704,7 +2803,7 @@
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>205</v>
       </c>
@@ -2714,7 +2813,7 @@
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>206</v>
       </c>
@@ -2724,7 +2823,7 @@
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>207</v>
       </c>
@@ -2734,7 +2833,7 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>208</v>
       </c>
@@ -2744,7 +2843,7 @@
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>7</v>
       </c>
@@ -2754,33 +2853,33 @@
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="19" t="s">
         <v>383</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B76" s="18"/>
+      <c r="B76" s="19"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B77" s="18"/>
+      <c r="B77" s="19"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>183</v>
       </c>
@@ -2790,7 +2889,7 @@
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>185</v>
       </c>
@@ -2800,7 +2899,7 @@
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>182</v>
       </c>
@@ -2810,7 +2909,7 @@
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>184</v>
       </c>
@@ -2820,7 +2919,7 @@
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>209</v>
       </c>
@@ -2830,7 +2929,7 @@
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -2840,7 +2939,7 @@
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>121</v>
       </c>
@@ -2850,7 +2949,7 @@
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>9</v>
       </c>
@@ -2860,7 +2959,7 @@
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>47</v>
       </c>
@@ -2870,7 +2969,7 @@
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>48</v>
       </c>
@@ -2880,7 +2979,7 @@
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>49</v>
       </c>
@@ -2890,7 +2989,7 @@
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>50</v>
       </c>
@@ -2900,7 +2999,7 @@
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>51</v>
       </c>
@@ -2910,7 +3009,7 @@
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>52</v>
       </c>
@@ -2920,51 +3019,51 @@
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="19" t="s">
         <v>398</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B93" s="18"/>
+      <c r="B93" s="19"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B94" s="18"/>
+      <c r="B94" s="19"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="18"/>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="19"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="18"/>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B96" s="19"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B97" s="18"/>
+      <c r="B97" s="19"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>234</v>
       </c>
@@ -2974,7 +3073,7 @@
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>134</v>
       </c>
@@ -2984,7 +3083,7 @@
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>289</v>
       </c>
@@ -2994,7 +3093,7 @@
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
@@ -3004,7 +3103,7 @@
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>53</v>
       </c>
@@ -3014,7 +3113,7 @@
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>175</v>
       </c>
@@ -3024,7 +3123,7 @@
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>176</v>
       </c>
@@ -3034,7 +3133,7 @@
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>11</v>
       </c>
@@ -3044,7 +3143,7 @@
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>12</v>
       </c>
@@ -3054,7 +3153,7 @@
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>13</v>
       </c>
@@ -3064,7 +3163,7 @@
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>14</v>
       </c>
@@ -3074,7 +3173,7 @@
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>15</v>
       </c>
@@ -3085,7 +3184,7 @@
       <c r="D109" s="5"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>16</v>
       </c>
@@ -3095,7 +3194,7 @@
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>17</v>
       </c>
@@ -3105,7 +3204,7 @@
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>18</v>
       </c>
@@ -3115,7 +3214,7 @@
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>19</v>
       </c>
@@ -3125,7 +3224,7 @@
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>20</v>
       </c>
@@ -3135,7 +3234,7 @@
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>148</v>
       </c>
@@ -3145,7 +3244,7 @@
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>149</v>
       </c>
@@ -3155,7 +3254,7 @@
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>150</v>
       </c>
@@ -3165,7 +3264,7 @@
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>151</v>
       </c>
@@ -3175,7 +3274,7 @@
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>152</v>
       </c>
@@ -3185,7 +3284,7 @@
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>153</v>
       </c>
@@ -3195,7 +3294,7 @@
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>154</v>
       </c>
@@ -3205,7 +3304,7 @@
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>155</v>
       </c>
@@ -3215,7 +3314,7 @@
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>156</v>
       </c>
@@ -3225,7 +3324,7 @@
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>157</v>
       </c>
@@ -3235,7 +3334,7 @@
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>158</v>
       </c>
@@ -3245,7 +3344,7 @@
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>159</v>
       </c>
@@ -3255,7 +3354,7 @@
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>160</v>
       </c>
@@ -3265,7 +3364,7 @@
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>122</v>
       </c>
@@ -3275,7 +3374,7 @@
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>123</v>
       </c>
@@ -3285,7 +3384,7 @@
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>124</v>
       </c>
@@ -3295,7 +3394,7 @@
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>125</v>
       </c>
@@ -3305,7 +3404,7 @@
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>126</v>
       </c>
@@ -3315,7 +3414,7 @@
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>127</v>
       </c>
@@ -3325,7 +3424,7 @@
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>128</v>
       </c>
@@ -3335,7 +3434,7 @@
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>129</v>
       </c>
@@ -3345,7 +3444,7 @@
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>130</v>
       </c>
@@ -3355,7 +3454,7 @@
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>131</v>
       </c>
@@ -3365,7 +3464,7 @@
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>161</v>
       </c>
@@ -3375,7 +3474,7 @@
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>162</v>
       </c>
@@ -3385,7 +3484,7 @@
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>163</v>
       </c>
@@ -3395,7 +3494,7 @@
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>164</v>
       </c>
@@ -3405,7 +3504,7 @@
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>165</v>
       </c>
@@ -3415,7 +3514,7 @@
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>166</v>
       </c>
@@ -3425,7 +3524,7 @@
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>167</v>
       </c>
@@ -3435,7 +3534,7 @@
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>168</v>
       </c>
@@ -3445,7 +3544,7 @@
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>169</v>
       </c>
@@ -3455,7 +3554,7 @@
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>170</v>
       </c>
@@ -3465,7 +3564,7 @@
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>171</v>
       </c>
@@ -3475,7 +3574,7 @@
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>172</v>
       </c>
@@ -3485,7 +3584,7 @@
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>173</v>
       </c>
@@ -3495,7 +3594,7 @@
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>54</v>
       </c>
@@ -3505,7 +3604,7 @@
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>55</v>
       </c>
@@ -3515,7 +3614,7 @@
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>56</v>
       </c>
@@ -3525,7 +3624,7 @@
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>57</v>
       </c>
@@ -3535,7 +3634,7 @@
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>58</v>
       </c>
@@ -3545,7 +3644,7 @@
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>59</v>
       </c>
@@ -3555,7 +3654,7 @@
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>60</v>
       </c>
@@ -3565,7 +3664,7 @@
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>61</v>
       </c>
@@ -3575,7 +3674,7 @@
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>62</v>
       </c>
@@ -3585,7 +3684,7 @@
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>63</v>
       </c>
@@ -3595,7 +3694,7 @@
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>135</v>
       </c>
@@ -3605,7 +3704,7 @@
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>146</v>
       </c>
@@ -3615,7 +3714,7 @@
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>136</v>
       </c>
@@ -3625,7 +3724,7 @@
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>137</v>
       </c>
@@ -3635,7 +3734,7 @@
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>138</v>
       </c>
@@ -3645,7 +3744,7 @@
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>139</v>
       </c>
@@ -3655,7 +3754,7 @@
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>140</v>
       </c>
@@ -3665,7 +3764,7 @@
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>141</v>
       </c>
@@ -3675,7 +3774,7 @@
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>142</v>
       </c>
@@ -3685,7 +3784,7 @@
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>143</v>
       </c>
@@ -3695,7 +3794,7 @@
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>144</v>
       </c>
@@ -3705,7 +3804,7 @@
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>145</v>
       </c>
@@ -3715,7 +3814,7 @@
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>147</v>
       </c>
@@ -3725,7 +3824,7 @@
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>210</v>
       </c>
@@ -3735,7 +3834,7 @@
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>211</v>
       </c>
@@ -3745,7 +3844,7 @@
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>180</v>
       </c>
@@ -3755,7 +3854,7 @@
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>174</v>
       </c>
@@ -3765,7 +3864,7 @@
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>64</v>
       </c>
@@ -3775,7 +3874,7 @@
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>65</v>
       </c>
@@ -3785,7 +3884,7 @@
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>66</v>
       </c>
@@ -3795,7 +3894,7 @@
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>67</v>
       </c>
@@ -3805,7 +3904,7 @@
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>237</v>
       </c>
@@ -3815,7 +3914,7 @@
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>242</v>
       </c>
@@ -3825,7 +3924,7 @@
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>68</v>
       </c>
@@ -3835,7 +3934,7 @@
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>69</v>
       </c>
@@ -3845,7 +3944,7 @@
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>212</v>
       </c>
@@ -3855,7 +3954,7 @@
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>70</v>
       </c>
@@ -3865,7 +3964,7 @@
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>71</v>
       </c>
@@ -3875,7 +3974,7 @@
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>72</v>
       </c>
@@ -3885,7 +3984,7 @@
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>73</v>
       </c>
@@ -3895,7 +3994,7 @@
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>74</v>
       </c>
@@ -3905,7 +4004,7 @@
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>243</v>
       </c>
@@ -3915,7 +4014,7 @@
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>75</v>
       </c>
@@ -3925,7 +4024,7 @@
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>76</v>
       </c>
@@ -3935,7 +4034,7 @@
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>77</v>
       </c>
@@ -3945,7 +4044,7 @@
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>213</v>
       </c>
@@ -3955,7 +4054,7 @@
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>214</v>
       </c>
@@ -3965,7 +4064,7 @@
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>21</v>
       </c>
@@ -3975,7 +4074,7 @@
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>22</v>
       </c>
@@ -3985,7 +4084,7 @@
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>23</v>
       </c>
@@ -3995,7 +4094,7 @@
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>24</v>
       </c>
@@ -4005,7 +4104,7 @@
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>25</v>
       </c>
@@ -4015,7 +4114,7 @@
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>26</v>
       </c>
@@ -4025,7 +4124,7 @@
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>27</v>
       </c>
@@ -4035,7 +4134,7 @@
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>28</v>
       </c>
@@ -4045,7 +4144,7 @@
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>29</v>
       </c>
@@ -4055,7 +4154,7 @@
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>30</v>
       </c>
@@ -4065,7 +4164,7 @@
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>31</v>
       </c>
@@ -4075,7 +4174,7 @@
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>215</v>
       </c>
@@ -4085,7 +4184,7 @@
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>32</v>
       </c>
@@ -4095,7 +4194,7 @@
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>33</v>
       </c>
@@ -4105,7 +4204,7 @@
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>34</v>
       </c>
@@ -4115,7 +4214,7 @@
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>116</v>
       </c>
@@ -4125,7 +4224,7 @@
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>216</v>
       </c>
@@ -4135,7 +4234,7 @@
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>217</v>
       </c>
@@ -4145,7 +4244,7 @@
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>218</v>
       </c>
@@ -4155,7 +4254,7 @@
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>219</v>
       </c>
@@ -4165,7 +4264,7 @@
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>220</v>
       </c>
@@ -4175,7 +4274,7 @@
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>221</v>
       </c>
@@ -4185,7 +4284,7 @@
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>222</v>
       </c>
@@ -4195,7 +4294,7 @@
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>223</v>
       </c>
@@ -4205,660 +4304,812 @@
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>267</v>
+        <v>542</v>
+      </c>
+      <c r="B222" s="16" t="s">
+        <v>543</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>84</v>
+        <v>291</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>90</v>
+        <v>430</v>
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>444</v>
+        <v>90</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>91</v>
+        <v>444</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>307</v>
+        <v>95</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>445</v>
+        <v>91</v>
       </c>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>285</v>
+        <v>445</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>272</v>
+        <v>520</v>
+      </c>
+      <c r="B242" s="16" t="s">
+        <v>521</v>
       </c>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>314</v>
+        <v>115</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>177</v>
+        <v>522</v>
+      </c>
+      <c r="B244" s="16" t="s">
+        <v>535</v>
       </c>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>178</v>
+        <v>523</v>
+      </c>
+      <c r="B245" s="16" t="s">
+        <v>536</v>
       </c>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>226</v>
+        <v>313</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>179</v>
+        <v>272</v>
       </c>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>227</v>
+        <v>314</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>181</v>
+        <v>273</v>
       </c>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>188</v>
+        <v>524</v>
+      </c>
+      <c r="B248" s="16" t="s">
+        <v>525</v>
       </c>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>190</v>
+        <v>526</v>
+      </c>
+      <c r="B249" s="16" t="s">
+        <v>527</v>
       </c>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B250" s="18" t="s">
-        <v>446</v>
+        <v>528</v>
+      </c>
+      <c r="B250" s="16" t="s">
+        <v>529</v>
       </c>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B251" s="18"/>
+        <v>530</v>
+      </c>
+      <c r="B251" s="16" t="s">
+        <v>540</v>
+      </c>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B252" s="18"/>
+        <v>531</v>
+      </c>
+      <c r="B252" s="16" t="s">
+        <v>539</v>
+      </c>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B253" s="18"/>
+        <v>532</v>
+      </c>
+      <c r="B253" s="16" t="s">
+        <v>537</v>
+      </c>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B254" s="18"/>
+        <v>533</v>
+      </c>
+      <c r="B254" s="16" t="s">
+        <v>538</v>
+      </c>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B255" s="18"/>
+        <v>534</v>
+      </c>
+      <c r="B255" s="16" t="s">
+        <v>541</v>
+      </c>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B256" s="18"/>
+        <v>224</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B257" s="18"/>
+        <v>225</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B258" s="18"/>
+        <v>226</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B259" s="18"/>
+        <v>227</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B260" s="18"/>
+        <v>189</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B261" s="18"/>
+        <v>274</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B262" s="18"/>
+        <v>96</v>
+      </c>
+      <c r="B262" s="19" t="s">
+        <v>446</v>
+      </c>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B263" s="18"/>
+        <v>97</v>
+      </c>
+      <c r="B263" s="19"/>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B264" s="18"/>
+        <v>98</v>
+      </c>
+      <c r="B264" s="19"/>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B265" s="18"/>
+        <v>99</v>
+      </c>
+      <c r="B265" s="19"/>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B266" s="19"/>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B267" s="19"/>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B268" s="19"/>
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>449</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B269" s="19"/>
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>448</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B270" s="19"/>
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B271" s="18" t="s">
-        <v>450</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B271" s="19"/>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B272" s="18"/>
+        <v>106</v>
+      </c>
+      <c r="B272" s="19"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B273" s="18"/>
+        <v>107</v>
+      </c>
+      <c r="B273" s="19"/>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B274" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="B274" s="19"/>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B275" s="18"/>
+        <v>109</v>
+      </c>
+      <c r="B275" s="19"/>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B276" s="18"/>
+        <v>110</v>
+      </c>
+      <c r="B276" s="19"/>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B277" s="17" t="s">
-        <v>451</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B277" s="19"/>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B278" s="17"/>
+        <v>112</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B279" s="17"/>
+        <v>113</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B280" s="16" t="s">
-        <v>452</v>
+        <v>114</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B281" s="16"/>
+        <v>238</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>449</v>
+      </c>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B282" s="16"/>
+        <v>239</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>448</v>
+      </c>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B283" s="16"/>
+        <v>275</v>
+      </c>
+      <c r="B283" s="19" t="s">
+        <v>450</v>
+      </c>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B284" s="16"/>
+        <v>278</v>
+      </c>
+      <c r="B284" s="19"/>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B285" s="16"/>
+        <v>276</v>
+      </c>
+      <c r="B285" s="19"/>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B286" s="16"/>
+        <v>277</v>
+      </c>
+      <c r="B286" s="19"/>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B287" s="16"/>
+        <v>280</v>
+      </c>
+      <c r="B287" s="19"/>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B288" s="16"/>
+        <v>279</v>
+      </c>
+      <c r="B288" s="19"/>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B289" s="16"/>
+        <v>317</v>
+      </c>
+      <c r="B289" s="18" t="s">
+        <v>451</v>
+      </c>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>453</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="B290" s="18"/>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>454</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B291" s="18"/>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B292" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C292" s="5"/>
+      <c r="D292" s="5"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B293" s="17"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="5"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B294" s="17"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="5"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B295" s="17"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="5"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B296" s="17"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="5"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B297" s="17"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="5"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B298" s="17"/>
+      <c r="C298" s="5"/>
+      <c r="D298" s="5"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B299" s="17"/>
+      <c r="C299" s="5"/>
+      <c r="D299" s="5"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B300" s="17"/>
+      <c r="C300" s="5"/>
+      <c r="D300" s="5"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B301" s="17"/>
+      <c r="C301" s="5"/>
+      <c r="D301" s="5"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C302" s="5"/>
+      <c r="D302" s="5"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C303" s="5"/>
+      <c r="D303" s="5"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="B304" s="1" t="s">
         <v>511</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B280:B289"/>
-    <mergeCell ref="B277:B279"/>
+    <mergeCell ref="B292:B301"/>
+    <mergeCell ref="B289:B291"/>
     <mergeCell ref="B75:B77"/>
     <mergeCell ref="B92:B97"/>
-    <mergeCell ref="B250:B265"/>
-    <mergeCell ref="B271:B276"/>
+    <mergeCell ref="B262:B277"/>
+    <mergeCell ref="B283:B288"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -4874,7 +5125,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4888,7 +5139,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Standardized 2.9/v2.9_tags_descriptions.xlsx
+++ b/Standardized 2.9/v2.9_tags_descriptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\GitHub\Standardized_XML\Standardized 2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018F613B-A3EF-44C9-AA97-09AEEA647A63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027A03A7-E7DB-41F5-A5B0-3EE48154965C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="546">
   <si>
     <t>SP</t>
   </si>
@@ -1664,6 +1664,12 @@
   </si>
   <si>
     <t>Titanium ppm</t>
+  </si>
+  <si>
+    <t>Reference_No</t>
+  </si>
+  <si>
+    <t>A reference number. Typically used in the case of rechecked samples or passing 3rd party sample ID's</t>
   </si>
 </sst>
 </file>
@@ -1756,7 +1762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1782,6 +1788,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2133,10 +2142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K308"/>
+  <dimension ref="A1:K309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="B223" sqref="B223"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2309,10 +2318,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>343</v>
+        <v>544</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>545</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2320,10 +2329,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2331,10 +2340,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -2342,10 +2351,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2353,99 +2362,99 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>228</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2453,10 +2462,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>118</v>
+        <v>241</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2464,10 +2473,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2475,31 +2484,31 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2507,2609 +2516,2620 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>193</v>
+        <v>376</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>377</v>
+        <v>132</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>6</v>
+        <v>304</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>6</v>
+        <v>379</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="1"/>
+      <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C62" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="C62" s="5"/>
       <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
+        <v>380</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C64" s="5"/>
+        <v>381</v>
+      </c>
+      <c r="C64" s="13"/>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="1"/>
+      <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
+      <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>350</v>
+        <v>205</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>207</v>
+        <v>350</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>382</v>
+        <v>207</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>7</v>
+        <v>208</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>7</v>
+        <v>382</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>383</v>
+        <v>7</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B76" s="19"/>
+        <v>305</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>383</v>
+      </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B77" s="19"/>
+        <v>315</v>
+      </c>
+      <c r="B77" s="20"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>384</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="B78" s="20"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>386</v>
+        <v>185</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>398</v>
+        <v>52</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B93" s="19"/>
+        <v>299</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>398</v>
+      </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B94" s="19"/>
+        <v>300</v>
+      </c>
+      <c r="B94" s="20"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B95" s="19"/>
+      <c r="A95" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B95" s="20"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B96" s="19"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B97" s="19"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>399</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="B98" s="20"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>289</v>
+        <v>134</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>10</v>
+        <v>409</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>410</v>
+        <v>10</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
-      <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
+      <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>428</v>
+        <v>500</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>237</v>
+        <v>67</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>212</v>
+        <v>69</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>501</v>
+        <v>433</v>
       </c>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>244</v>
+        <v>443</v>
       </c>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B222" s="16" t="s">
-        <v>543</v>
+        <v>223</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>267</v>
+        <v>542</v>
+      </c>
+      <c r="B223" s="16" t="s">
+        <v>543</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>84</v>
+        <v>291</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>90</v>
+        <v>430</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>444</v>
+        <v>90</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>91</v>
+        <v>444</v>
       </c>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>307</v>
+        <v>95</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>445</v>
+        <v>91</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>285</v>
+        <v>445</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B242" s="16" t="s">
-        <v>521</v>
+        <v>233</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>271</v>
+        <v>520</v>
+      </c>
+      <c r="B243" s="16" t="s">
+        <v>521</v>
       </c>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B244" s="16" t="s">
-        <v>535</v>
+        <v>115</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B245" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>272</v>
+        <v>523</v>
+      </c>
+      <c r="B246" s="16" t="s">
+        <v>536</v>
       </c>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B248" s="16" t="s">
-        <v>525</v>
+        <v>314</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B249" s="16" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B250" s="16" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B251" s="16" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B252" s="16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B253" s="16" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B254" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B255" s="16" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>177</v>
+        <v>534</v>
+      </c>
+      <c r="B256" s="16" t="s">
+        <v>541</v>
       </c>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B262" s="19" t="s">
-        <v>446</v>
+        <v>274</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B263" s="19"/>
+        <v>96</v>
+      </c>
+      <c r="B263" s="20" t="s">
+        <v>446</v>
+      </c>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B264" s="19"/>
+        <v>97</v>
+      </c>
+      <c r="B264" s="20"/>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B265" s="19"/>
+        <v>98</v>
+      </c>
+      <c r="B265" s="20"/>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B266" s="19"/>
+        <v>99</v>
+      </c>
+      <c r="B266" s="20"/>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B267" s="19"/>
+        <v>100</v>
+      </c>
+      <c r="B267" s="20"/>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B268" s="19"/>
+        <v>101</v>
+      </c>
+      <c r="B268" s="20"/>
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B269" s="19"/>
+        <v>102</v>
+      </c>
+      <c r="B269" s="20"/>
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B270" s="19"/>
+        <v>103</v>
+      </c>
+      <c r="B270" s="20"/>
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B271" s="19"/>
+        <v>104</v>
+      </c>
+      <c r="B271" s="20"/>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B272" s="19"/>
+        <v>105</v>
+      </c>
+      <c r="B272" s="20"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B273" s="19"/>
+        <v>106</v>
+      </c>
+      <c r="B273" s="20"/>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B274" s="19"/>
+        <v>107</v>
+      </c>
+      <c r="B274" s="20"/>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B275" s="19"/>
+        <v>108</v>
+      </c>
+      <c r="B275" s="20"/>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B276" s="19"/>
+        <v>109</v>
+      </c>
+      <c r="B276" s="20"/>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B277" s="19"/>
+        <v>110</v>
+      </c>
+      <c r="B277" s="20"/>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B278" s="20"/>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>447</v>
+        <v>113</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B283" s="19" t="s">
-        <v>450</v>
+        <v>239</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>448</v>
       </c>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B284" s="19"/>
+        <v>275</v>
+      </c>
+      <c r="B284" s="20" t="s">
+        <v>450</v>
+      </c>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B285" s="19"/>
+        <v>278</v>
+      </c>
+      <c r="B285" s="20"/>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B286" s="19"/>
+        <v>276</v>
+      </c>
+      <c r="B286" s="20"/>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B287" s="19"/>
+        <v>277</v>
+      </c>
+      <c r="B287" s="20"/>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B288" s="19"/>
+        <v>280</v>
+      </c>
+      <c r="B288" s="20"/>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B289" s="18" t="s">
-        <v>451</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B289" s="20"/>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B290" s="18"/>
+        <v>317</v>
+      </c>
+      <c r="B290" s="19" t="s">
+        <v>451</v>
+      </c>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B291" s="18"/>
+        <v>318</v>
+      </c>
+      <c r="B291" s="19"/>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B292" s="17" t="s">
-        <v>452</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B292" s="19"/>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B293" s="17"/>
+        <v>320</v>
+      </c>
+      <c r="B293" s="18" t="s">
+        <v>452</v>
+      </c>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B294" s="17"/>
+        <v>321</v>
+      </c>
+      <c r="B294" s="18"/>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B295" s="17"/>
+        <v>322</v>
+      </c>
+      <c r="B295" s="18"/>
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B296" s="17"/>
+        <v>323</v>
+      </c>
+      <c r="B296" s="18"/>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B297" s="17"/>
+        <v>324</v>
+      </c>
+      <c r="B297" s="18"/>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B298" s="17"/>
+        <v>326</v>
+      </c>
+      <c r="B298" s="18"/>
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B299" s="17"/>
+        <v>325</v>
+      </c>
+      <c r="B299" s="18"/>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B300" s="17"/>
+        <v>327</v>
+      </c>
+      <c r="B300" s="18"/>
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B301" s="17"/>
+        <v>328</v>
+      </c>
+      <c r="B301" s="18"/>
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>453</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="B302" s="18"/>
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>511</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C304" s="5"/>
+      <c r="D304" s="5"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="B309" s="1" t="s">
         <v>519</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B292:B301"/>
-    <mergeCell ref="B289:B291"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B92:B97"/>
-    <mergeCell ref="B262:B277"/>
-    <mergeCell ref="B283:B288"/>
+    <mergeCell ref="B293:B302"/>
+    <mergeCell ref="B290:B292"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="B263:B278"/>
+    <mergeCell ref="B284:B289"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>

--- a/Standardized 2.9/v2.9_tags_descriptions.xlsx
+++ b/Standardized 2.9/v2.9_tags_descriptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\GitHub\Standardized_XML\Standardized 2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027A03A7-E7DB-41F5-A5B0-3EE48154965C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D40CB3-1F33-4D90-B94B-5F587C976616}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="548">
   <si>
     <t>SP</t>
   </si>
@@ -1670,6 +1670,12 @@
   </si>
   <si>
     <t>A reference number. Typically used in the case of rechecked samples or passing 3rd party sample ID's</t>
+  </si>
+  <si>
+    <t>Lot_name</t>
+  </si>
+  <si>
+    <t>Lot names can be used to aggregate multiple samples from the same farm.  For example, multiple samples from the same silo.</t>
   </si>
 </sst>
 </file>
@@ -1762,7 +1768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1788,6 +1794,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2142,10 +2151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K309"/>
+  <dimension ref="A1:K310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2164,7 +2173,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>42123</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2252,10 +2261,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>339</v>
+        <v>546</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>547</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2263,10 +2272,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2274,7 +2283,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>340</v>
@@ -2285,7 +2294,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>340</v>
@@ -2296,10 +2305,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -2307,10 +2316,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -2318,10 +2327,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>545</v>
+        <v>283</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2329,10 +2338,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>343</v>
+        <v>544</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>545</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2340,10 +2349,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -2351,10 +2360,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2362,10 +2371,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2373,99 +2382,99 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>228</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2473,10 +2482,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>241</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2484,10 +2493,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2495,31 +2504,31 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
+      <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2527,2609 +2536,2620 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>193</v>
+        <v>376</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>377</v>
+        <v>132</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>6</v>
+        <v>304</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>6</v>
+        <v>379</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="1"/>
+      <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C63" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="C63" s="5"/>
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
+        <v>380</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C65" s="5"/>
+        <v>381</v>
+      </c>
+      <c r="C65" s="13"/>
       <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="1"/>
+      <c r="D66" s="14"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>350</v>
+        <v>205</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>207</v>
+        <v>350</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>382</v>
+        <v>207</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>7</v>
+        <v>208</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>7</v>
+        <v>382</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>383</v>
+        <v>7</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B77" s="20"/>
+        <v>305</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>383</v>
+      </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B78" s="20"/>
+        <v>315</v>
+      </c>
+      <c r="B78" s="21"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>384</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="B79" s="21"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>386</v>
+        <v>185</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>398</v>
+        <v>52</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B94" s="20"/>
+        <v>299</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>398</v>
+      </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B95" s="20"/>
+        <v>300</v>
+      </c>
+      <c r="B95" s="21"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B96" s="20"/>
+      <c r="A96" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B96" s="21"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B97" s="20"/>
+      <c r="B97" s="21"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B98" s="20"/>
+      <c r="B98" s="21"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>399</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="B99" s="21"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>289</v>
+        <v>134</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>10</v>
+        <v>409</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>410</v>
+        <v>10</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
-      <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
+      <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>428</v>
+        <v>500</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>237</v>
+        <v>67</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>212</v>
+        <v>69</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>501</v>
+        <v>433</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>244</v>
+        <v>443</v>
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B223" s="16" t="s">
-        <v>543</v>
+        <v>223</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>267</v>
+        <v>542</v>
+      </c>
+      <c r="B224" s="16" t="s">
+        <v>543</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>84</v>
+        <v>291</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>90</v>
+        <v>430</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>444</v>
+        <v>90</v>
       </c>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>91</v>
+        <v>444</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>307</v>
+        <v>95</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>445</v>
+        <v>91</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>285</v>
+        <v>445</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B243" s="16" t="s">
-        <v>521</v>
+        <v>233</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>271</v>
+        <v>520</v>
+      </c>
+      <c r="B244" s="16" t="s">
+        <v>521</v>
       </c>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B245" s="16" t="s">
-        <v>535</v>
+        <v>115</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B246" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>272</v>
+        <v>523</v>
+      </c>
+      <c r="B247" s="16" t="s">
+        <v>536</v>
       </c>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B249" s="16" t="s">
-        <v>525</v>
+        <v>314</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B250" s="16" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B251" s="16" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B252" s="16" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B253" s="16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B254" s="16" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B255" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B256" s="16" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>177</v>
+        <v>534</v>
+      </c>
+      <c r="B257" s="16" t="s">
+        <v>541</v>
       </c>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B263" s="20" t="s">
-        <v>446</v>
+        <v>274</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B264" s="20"/>
+        <v>96</v>
+      </c>
+      <c r="B264" s="21" t="s">
+        <v>446</v>
+      </c>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B265" s="20"/>
+        <v>97</v>
+      </c>
+      <c r="B265" s="21"/>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B266" s="20"/>
+        <v>98</v>
+      </c>
+      <c r="B266" s="21"/>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B267" s="20"/>
+        <v>99</v>
+      </c>
+      <c r="B267" s="21"/>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B268" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="B268" s="21"/>
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B269" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="B269" s="21"/>
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B270" s="20"/>
+        <v>102</v>
+      </c>
+      <c r="B270" s="21"/>
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B271" s="20"/>
+        <v>103</v>
+      </c>
+      <c r="B271" s="21"/>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B272" s="20"/>
+        <v>104</v>
+      </c>
+      <c r="B272" s="21"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B273" s="20"/>
+        <v>105</v>
+      </c>
+      <c r="B273" s="21"/>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B274" s="20"/>
+        <v>106</v>
+      </c>
+      <c r="B274" s="21"/>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B275" s="20"/>
+        <v>107</v>
+      </c>
+      <c r="B275" s="21"/>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B276" s="20"/>
+        <v>108</v>
+      </c>
+      <c r="B276" s="21"/>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B277" s="20"/>
+        <v>109</v>
+      </c>
+      <c r="B277" s="21"/>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B278" s="20"/>
+        <v>110</v>
+      </c>
+      <c r="B278" s="21"/>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B279" s="21"/>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>447</v>
+        <v>113</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B284" s="20" t="s">
-        <v>450</v>
+        <v>239</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>448</v>
       </c>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B285" s="20"/>
+        <v>275</v>
+      </c>
+      <c r="B285" s="21" t="s">
+        <v>450</v>
+      </c>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B286" s="20"/>
+        <v>278</v>
+      </c>
+      <c r="B286" s="21"/>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B287" s="20"/>
+        <v>276</v>
+      </c>
+      <c r="B287" s="21"/>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B288" s="20"/>
+        <v>277</v>
+      </c>
+      <c r="B288" s="21"/>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B289" s="20"/>
+        <v>280</v>
+      </c>
+      <c r="B289" s="21"/>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B290" s="19" t="s">
-        <v>451</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B290" s="21"/>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B291" s="19"/>
+        <v>317</v>
+      </c>
+      <c r="B291" s="20" t="s">
+        <v>451</v>
+      </c>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B292" s="19"/>
+        <v>318</v>
+      </c>
+      <c r="B292" s="20"/>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B293" s="18" t="s">
-        <v>452</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B293" s="20"/>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B294" s="18"/>
+        <v>320</v>
+      </c>
+      <c r="B294" s="19" t="s">
+        <v>452</v>
+      </c>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B295" s="18"/>
+        <v>321</v>
+      </c>
+      <c r="B295" s="19"/>
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B296" s="18"/>
+        <v>322</v>
+      </c>
+      <c r="B296" s="19"/>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B297" s="18"/>
+        <v>323</v>
+      </c>
+      <c r="B297" s="19"/>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B298" s="18"/>
+        <v>324</v>
+      </c>
+      <c r="B298" s="19"/>
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B299" s="18"/>
+        <v>326</v>
+      </c>
+      <c r="B299" s="19"/>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B300" s="18"/>
+        <v>325</v>
+      </c>
+      <c r="B300" s="19"/>
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B301" s="18"/>
+        <v>327</v>
+      </c>
+      <c r="B301" s="19"/>
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B302" s="18"/>
+        <v>328</v>
+      </c>
+      <c r="B302" s="19"/>
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>453</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="B303" s="19"/>
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C305" s="5"/>
+      <c r="D305" s="5"/>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="B306" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A306" s="1" t="s">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="B307" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A307" s="1" t="s">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="B308" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" s="1" t="s">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="B309" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" s="1" t="s">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="B310" s="1" t="s">
         <v>519</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B293:B302"/>
-    <mergeCell ref="B290:B292"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B93:B98"/>
-    <mergeCell ref="B263:B278"/>
-    <mergeCell ref="B284:B289"/>
+    <mergeCell ref="B294:B303"/>
+    <mergeCell ref="B291:B293"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="B264:B279"/>
+    <mergeCell ref="B285:B290"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>

--- a/Standardized 2.9/v2.9_tags_descriptions.xlsx
+++ b/Standardized 2.9/v2.9_tags_descriptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\GitHub\Standardized_XML\Standardized 2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D40CB3-1F33-4D90-B94B-5F587C976616}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955DC0BF-18AF-4882-B494-03744AB17E6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="549">
   <si>
     <t>SP</t>
   </si>
@@ -1676,6 +1676,9 @@
   </si>
   <si>
     <t>Lot names can be used to aggregate multiple samples from the same farm.  For example, multiple samples from the same silo.</t>
+  </si>
+  <si>
+    <t>rSTRD_IS_7hr_6mm</t>
   </si>
 </sst>
 </file>
@@ -2151,63 +2154,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K310"/>
+  <dimension ref="A1:K311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77:B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="49.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="93" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" style="1" customWidth="1"/>
     <col min="4" max="4" width="93" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="5"/>
+    <col min="5" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43678</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>298</v>
       </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>284</v>
       </c>
@@ -2217,7 +2220,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>316</v>
       </c>
@@ -2227,7 +2230,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>332</v>
       </c>
@@ -2237,7 +2240,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>281</v>
       </c>
@@ -2248,7 +2251,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>292</v>
       </c>
@@ -2259,7 +2262,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>546</v>
       </c>
@@ -2270,7 +2273,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>282</v>
       </c>
@@ -2281,7 +2284,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>293</v>
       </c>
@@ -2292,7 +2295,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>294</v>
       </c>
@@ -2303,7 +2306,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>295</v>
       </c>
@@ -2314,7 +2317,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>333</v>
       </c>
@@ -2325,7 +2328,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>283</v>
       </c>
@@ -2336,7 +2339,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>544</v>
       </c>
@@ -2347,7 +2350,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>186</v>
       </c>
@@ -2358,7 +2361,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>187</v>
       </c>
@@ -2369,7 +2372,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>191</v>
       </c>
@@ -2380,7 +2383,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>228</v>
       </c>
@@ -2391,7 +2394,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -2402,7 +2405,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2411,7 +2414,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -2419,7 +2422,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>117</v>
       </c>
@@ -2430,7 +2433,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
@@ -2449,7 +2452,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -2459,7 +2462,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
@@ -2469,7 +2472,7 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>240</v>
       </c>
@@ -2480,7 +2483,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>241</v>
       </c>
@@ -2491,7 +2494,7 @@
       <c r="D37" s="5"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>118</v>
       </c>
@@ -2502,7 +2505,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -2513,7 +2516,7 @@
       <c r="D39" s="5"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>119</v>
       </c>
@@ -2523,7 +2526,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
@@ -2534,7 +2537,7 @@
       <c r="D41" s="5"/>
       <c r="E41" s="12"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -2545,7 +2548,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="12"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
@@ -2555,7 +2558,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
@@ -2566,7 +2569,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="12"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -2576,7 +2579,7 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
@@ -2586,7 +2589,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
@@ -2596,7 +2599,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -2606,7 +2609,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>120</v>
       </c>
@@ -2616,7 +2619,7 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>133</v>
       </c>
@@ -2626,7 +2629,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>192</v>
       </c>
@@ -2636,7 +2639,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>230</v>
       </c>
@@ -2646,7 +2649,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>229</v>
       </c>
@@ -2656,7 +2659,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>193</v>
       </c>
@@ -2666,7 +2669,7 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>132</v>
       </c>
@@ -2676,7 +2679,7 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>231</v>
       </c>
@@ -2693,7 +2696,7 @@
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>194</v>
       </c>
@@ -2703,7 +2706,7 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>195</v>
       </c>
@@ -2713,7 +2716,7 @@
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>196</v>
       </c>
@@ -2723,7 +2726,7 @@
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>197</v>
       </c>
@@ -2733,7 +2736,7 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>198</v>
       </c>
@@ -2743,7 +2746,7 @@
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>304</v>
       </c>
@@ -2753,7 +2756,7 @@
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -2763,7 +2766,7 @@
       <c r="C63" s="5"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>236</v>
       </c>
@@ -2773,7 +2776,7 @@
       <c r="C64" s="8"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>235</v>
       </c>
@@ -2783,7 +2786,7 @@
       <c r="C65" s="13"/>
       <c r="D65" s="14"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>199</v>
       </c>
@@ -2793,7 +2796,7 @@
       <c r="C66" s="5"/>
       <c r="D66" s="14"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>200</v>
       </c>
@@ -2803,7 +2806,7 @@
       <c r="C67" s="5"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>201</v>
       </c>
@@ -2813,7 +2816,7 @@
       <c r="C68" s="5"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>202</v>
       </c>
@@ -2823,7 +2826,7 @@
       <c r="C69" s="5"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>203</v>
       </c>
@@ -2833,7 +2836,7 @@
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>204</v>
       </c>
@@ -2843,7 +2846,7 @@
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>205</v>
       </c>
@@ -2853,7 +2856,7 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>206</v>
       </c>
@@ -2863,7 +2866,7 @@
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>207</v>
       </c>
@@ -2873,7 +2876,7 @@
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>208</v>
       </c>
@@ -2883,7 +2886,7 @@
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -2893,7 +2896,7 @@
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>305</v>
       </c>
@@ -2903,7 +2906,7 @@
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>315</v>
       </c>
@@ -2911,2245 +2914,2253 @@
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>306</v>
+        <v>548</v>
       </c>
       <c r="B79" s="21"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>384</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="B80" s="21"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>386</v>
+        <v>185</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>398</v>
+        <v>52</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B95" s="21"/>
+        <v>299</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>398</v>
+      </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B96" s="21"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="B97" s="21"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B98" s="21"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>302</v>
-      </c>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B99" s="21"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>399</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="B100" s="21"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>289</v>
+        <v>134</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>10</v>
+        <v>409</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>410</v>
+        <v>10</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
-      <c r="G111" s="1"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>428</v>
+        <v>500</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>237</v>
+        <v>67</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>212</v>
+        <v>69</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>501</v>
+        <v>433</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>244</v>
+        <v>443</v>
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B224" s="16" t="s">
-        <v>543</v>
+        <v>223</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>267</v>
+        <v>542</v>
+      </c>
+      <c r="B225" s="16" t="s">
+        <v>543</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>84</v>
+        <v>291</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>90</v>
+        <v>430</v>
       </c>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>444</v>
+        <v>90</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>91</v>
+        <v>444</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>307</v>
+        <v>95</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>445</v>
+        <v>91</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>285</v>
+        <v>445</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B244" s="16" t="s">
-        <v>521</v>
+        <v>233</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>271</v>
+        <v>520</v>
+      </c>
+      <c r="B245" s="16" t="s">
+        <v>521</v>
       </c>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B246" s="16" t="s">
-        <v>535</v>
+        <v>115</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B247" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>272</v>
+        <v>523</v>
+      </c>
+      <c r="B248" s="16" t="s">
+        <v>536</v>
       </c>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B250" s="16" t="s">
-        <v>525</v>
+        <v>314</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B251" s="16" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B252" s="16" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B253" s="16" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B254" s="16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B255" s="16" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B256" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B257" s="16" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>177</v>
+        <v>534</v>
+      </c>
+      <c r="B258" s="16" t="s">
+        <v>541</v>
       </c>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B264" s="21" t="s">
-        <v>446</v>
+        <v>274</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B265" s="21"/>
+        <v>96</v>
+      </c>
+      <c r="B265" s="21" t="s">
+        <v>446</v>
+      </c>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B266" s="21"/>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B267" s="21"/>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B268" s="21"/>
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B269" s="21"/>
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B270" s="21"/>
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B271" s="21"/>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B272" s="21"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B273" s="21"/>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B274" s="21"/>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B275" s="21"/>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B276" s="21"/>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B277" s="21"/>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B278" s="21"/>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B279" s="21"/>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B280" s="21"/>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>447</v>
+        <v>113</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B285" s="21" t="s">
-        <v>450</v>
+        <v>239</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>448</v>
       </c>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B286" s="21"/>
+        <v>275</v>
+      </c>
+      <c r="B286" s="21" t="s">
+        <v>450</v>
+      </c>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B287" s="21"/>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B288" s="21"/>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B289" s="21"/>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B290" s="21"/>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B291" s="20" t="s">
-        <v>451</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B291" s="21"/>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B292" s="20"/>
+        <v>317</v>
+      </c>
+      <c r="B292" s="20" t="s">
+        <v>451</v>
+      </c>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B294" s="19" t="s">
-        <v>452</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B294" s="20"/>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B295" s="19"/>
+        <v>320</v>
+      </c>
+      <c r="B295" s="19" t="s">
+        <v>452</v>
+      </c>
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B296" s="19"/>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B297" s="19"/>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B298" s="19"/>
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B299" s="19"/>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B300" s="19"/>
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B301" s="19"/>
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B302" s="19"/>
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B303" s="19"/>
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>453</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="B304" s="19"/>
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C306" s="5"/>
+      <c r="D306" s="5"/>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="B307" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="1" t="s">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="B308" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="1" t="s">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="B309" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="1" t="s">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="B310" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="1" t="s">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="B311" s="1" t="s">
         <v>519</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B294:B303"/>
-    <mergeCell ref="B291:B293"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="B264:B279"/>
-    <mergeCell ref="B285:B290"/>
+    <mergeCell ref="B295:B304"/>
+    <mergeCell ref="B292:B294"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="B265:B280"/>
+    <mergeCell ref="B286:B291"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -5165,7 +5176,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5179,7 +5190,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Standardized 2.9/v2.9_tags_descriptions.xlsx
+++ b/Standardized 2.9/v2.9_tags_descriptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\GitHub\Standardized_XML\Standardized 2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955DC0BF-18AF-4882-B494-03744AB17E6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8777552B-5E12-434E-B92A-0E06DA269B9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="553">
   <si>
     <t>SP</t>
   </si>
@@ -1679,6 +1679,18 @@
   </si>
   <si>
     <t>rSTRD_IS_7hr_6mm</t>
+  </si>
+  <si>
+    <t>rSTRD_IS_0hr_6mm</t>
+  </si>
+  <si>
+    <t>rSTRD_IS_3hr_6mm</t>
+  </si>
+  <si>
+    <t>rSTRD_IS_16hr_6mm</t>
+  </si>
+  <si>
+    <t>rSTRD_IS_24hr_6mm</t>
   </si>
 </sst>
 </file>
@@ -2154,10 +2166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K311"/>
+  <dimension ref="A1:K315"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77:B80"/>
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2916,7 +2928,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B79" s="21"/>
       <c r="C79" s="5"/>
@@ -2924,7 +2936,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>306</v>
+        <v>550</v>
       </c>
       <c r="B80" s="21"/>
       <c r="C80" s="5"/>
@@ -2932,1874 +2944,1874 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>384</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="B81" s="21"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>385</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="B82" s="21"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>386</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="B83" s="21"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>387</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="B84" s="21"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>388</v>
+        <v>183</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>384</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>389</v>
+        <v>185</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>47</v>
+        <v>209</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>398</v>
+        <v>49</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B96" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B97" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="21"/>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>397</v>
+      </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="21"/>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>398</v>
+      </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B100" s="21"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>399</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="B101" s="21"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>400</v>
-      </c>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="21"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>409</v>
-      </c>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="21"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="B104" s="21"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>53</v>
+        <v>234</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>176</v>
+        <v>289</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>401</v>
+        <v>10</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
-      <c r="G112" s="1"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>428</v>
+        <v>497</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>429</v>
+        <v>498</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>431</v>
+        <v>499</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>432</v>
+        <v>500</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>237</v>
+        <v>64</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>242</v>
+        <v>65</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>70</v>
+        <v>242</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>501</v>
+        <v>439</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>503</v>
+        <v>441</v>
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>504</v>
+        <v>433</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>243</v>
+        <v>71</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>442</v>
+        <v>506</v>
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>214</v>
+        <v>75</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>443</v>
+        <v>507</v>
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>244</v>
+        <v>508</v>
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>245</v>
+        <v>509</v>
       </c>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>246</v>
+        <v>442</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>247</v>
+        <v>443</v>
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B225" s="16" t="s">
-        <v>543</v>
+        <v>220</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>85</v>
+        <v>223</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>81</v>
+        <v>542</v>
+      </c>
+      <c r="B229" s="16" t="s">
+        <v>543</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>87</v>
+        <v>291</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>430</v>
+        <v>81</v>
       </c>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>444</v>
+        <v>82</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>307</v>
+        <v>92</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>308</v>
+        <v>93</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>285</v>
+        <v>90</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>309</v>
+        <v>94</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>286</v>
+        <v>444</v>
       </c>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>310</v>
+        <v>95</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>287</v>
+        <v>91</v>
       </c>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>288</v>
+        <v>445</v>
       </c>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B245" s="16" t="s">
-        <v>521</v>
+        <v>311</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>115</v>
+        <v>312</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B247" s="16" t="s">
-        <v>535</v>
+        <v>232</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B248" s="16" t="s">
-        <v>536</v>
+        <v>233</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>272</v>
+        <v>520</v>
+      </c>
+      <c r="B249" s="16" t="s">
+        <v>521</v>
       </c>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>314</v>
+        <v>115</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B251" s="16" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B252" s="16" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B253" s="16" t="s">
-        <v>529</v>
+        <v>313</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B254" s="16" t="s">
-        <v>540</v>
+        <v>314</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B255" s="16" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B256" s="16" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B257" s="16" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B258" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>177</v>
+        <v>531</v>
+      </c>
+      <c r="B259" s="16" t="s">
+        <v>539</v>
       </c>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>178</v>
+        <v>532</v>
+      </c>
+      <c r="B260" s="16" t="s">
+        <v>537</v>
       </c>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>179</v>
+        <v>533</v>
+      </c>
+      <c r="B261" s="16" t="s">
+        <v>538</v>
       </c>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>181</v>
+        <v>534</v>
+      </c>
+      <c r="B262" s="16" t="s">
+        <v>541</v>
       </c>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B265" s="21" t="s">
-        <v>446</v>
+        <v>226</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B266" s="21"/>
+        <v>227</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B267" s="21"/>
+        <v>189</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B268" s="21"/>
+        <v>274</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B269" s="21"/>
+        <v>96</v>
+      </c>
+      <c r="B269" s="21" t="s">
+        <v>446</v>
+      </c>
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B270" s="21"/>
       <c r="C270" s="5"/>
@@ -4807,7 +4819,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B271" s="21"/>
       <c r="C271" s="5"/>
@@ -4815,7 +4827,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B272" s="21"/>
       <c r="C272" s="5"/>
@@ -4823,7 +4835,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B273" s="21"/>
       <c r="C273" s="5"/>
@@ -4831,7 +4843,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B274" s="21"/>
       <c r="C274" s="5"/>
@@ -4839,7 +4851,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B275" s="21"/>
       <c r="C275" s="5"/>
@@ -4847,7 +4859,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B276" s="21"/>
       <c r="C276" s="5"/>
@@ -4855,7 +4867,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B277" s="21"/>
       <c r="C277" s="5"/>
@@ -4863,7 +4875,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B278" s="21"/>
       <c r="C278" s="5"/>
@@ -4871,7 +4883,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B279" s="21"/>
       <c r="C279" s="5"/>
@@ -4879,7 +4891,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B280" s="21"/>
       <c r="C280" s="5"/>
@@ -4887,99 +4899,99 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B281" s="21"/>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B282" s="21"/>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B283" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B283" s="21"/>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B284" s="3" t="s">
-        <v>449</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B284" s="21"/>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>448</v>
+        <v>112</v>
       </c>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B286" s="21" t="s">
-        <v>450</v>
+        <v>113</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B287" s="21"/>
+        <v>114</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B288" s="21"/>
+        <v>238</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>449</v>
+      </c>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B289" s="21"/>
+        <v>239</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>448</v>
+      </c>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B290" s="21"/>
+        <v>275</v>
+      </c>
+      <c r="B290" s="21" t="s">
+        <v>450</v>
+      </c>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B291" s="21"/>
       <c r="C291" s="5"/>
@@ -4987,75 +4999,75 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B292" s="20" t="s">
-        <v>451</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="B292" s="21"/>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B293" s="20"/>
+        <v>277</v>
+      </c>
+      <c r="B293" s="21"/>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B294" s="20"/>
+        <v>280</v>
+      </c>
+      <c r="B294" s="21"/>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B295" s="19" t="s">
-        <v>452</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B295" s="21"/>
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B296" s="19"/>
+        <v>317</v>
+      </c>
+      <c r="B296" s="20" t="s">
+        <v>451</v>
+      </c>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B297" s="19"/>
+        <v>318</v>
+      </c>
+      <c r="B297" s="20"/>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B298" s="19"/>
+        <v>319</v>
+      </c>
+      <c r="B298" s="20"/>
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B299" s="19"/>
+        <v>320</v>
+      </c>
+      <c r="B299" s="19" t="s">
+        <v>452</v>
+      </c>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B300" s="19"/>
       <c r="C300" s="5"/>
@@ -5063,7 +5075,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B301" s="19"/>
       <c r="C301" s="5"/>
@@ -5071,7 +5083,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B302" s="19"/>
       <c r="C302" s="5"/>
@@ -5079,7 +5091,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B303" s="19"/>
       <c r="C303" s="5"/>
@@ -5087,7 +5099,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B304" s="19"/>
       <c r="C304" s="5"/>
@@ -5095,72 +5107,104 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>453</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="B305" s="19"/>
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>454</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="B306" s="19"/>
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>511</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="B307" s="19"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="5"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>517</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="B308" s="19"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="5"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>516</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C309" s="5"/>
+      <c r="D309" s="5"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>518</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C310" s="5"/>
+      <c r="D310" s="5"/>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="B315" s="1" t="s">
         <v>519</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B295:B304"/>
-    <mergeCell ref="B292:B294"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="B265:B280"/>
-    <mergeCell ref="B286:B291"/>
+    <mergeCell ref="B299:B308"/>
+    <mergeCell ref="B296:B298"/>
+    <mergeCell ref="B77:B84"/>
+    <mergeCell ref="B99:B104"/>
+    <mergeCell ref="B269:B284"/>
+    <mergeCell ref="B290:B295"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>

--- a/Standardized 2.9/v2.9_tags_descriptions.xlsx
+++ b/Standardized 2.9/v2.9_tags_descriptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\GitHub\Standardized_XML\Standardized 2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8777552B-5E12-434E-B92A-0E06DA269B9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270A02BD-D307-451F-880B-DC7D5258F35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-28920" yWindow="-2820" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="555">
   <si>
     <t>SP</t>
   </si>
@@ -1691,6 +1691,12 @@
   </si>
   <si>
     <t>rSTRD_IS_24hr_6mm</t>
+  </si>
+  <si>
+    <t>RUP_ID</t>
+  </si>
+  <si>
+    <t>Intestinal digestibility of RUP expressed as percent of RUP</t>
   </si>
 </sst>
 </file>
@@ -1783,7 +1789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1809,6 +1815,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2166,10 +2175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K315"/>
+  <dimension ref="A1:K316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2551,10 +2560,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>365</v>
+        <v>553</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>554</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2562,2649 +2571,2660 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>193</v>
+        <v>376</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>377</v>
+        <v>132</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>6</v>
+        <v>304</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>6</v>
+        <v>379</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="1"/>
+      <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C64" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="C64" s="5"/>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
+        <v>380</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C66" s="5"/>
+        <v>381</v>
+      </c>
+      <c r="C66" s="13"/>
       <c r="D66" s="14"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="1"/>
+      <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>350</v>
+        <v>205</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>207</v>
+        <v>350</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>382</v>
+        <v>207</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>7</v>
+        <v>208</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>7</v>
+        <v>382</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>383</v>
+        <v>7</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B78" s="21"/>
+        <v>305</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>383</v>
+      </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B79" s="21"/>
+        <v>315</v>
+      </c>
+      <c r="B79" s="22"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B80" s="21"/>
+        <v>549</v>
+      </c>
+      <c r="B80" s="22"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B81" s="21"/>
+        <v>550</v>
+      </c>
+      <c r="B81" s="22"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B82" s="21"/>
+        <v>548</v>
+      </c>
+      <c r="B82" s="22"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B83" s="21"/>
+        <v>306</v>
+      </c>
+      <c r="B83" s="22"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B84" s="21"/>
+        <v>551</v>
+      </c>
+      <c r="B84" s="22"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>384</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="B85" s="22"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>386</v>
+        <v>185</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>398</v>
+        <v>52</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B100" s="21"/>
+        <v>299</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>398</v>
+      </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B101" s="21"/>
+        <v>300</v>
+      </c>
+      <c r="B101" s="22"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="21"/>
+      <c r="A102" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B102" s="22"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="21"/>
+      <c r="B103" s="22"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B104" s="21"/>
+      <c r="B104" s="22"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>399</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="B105" s="22"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>289</v>
+        <v>134</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>10</v>
+        <v>409</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>410</v>
+        <v>10</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
-      <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
+      <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>428</v>
+        <v>500</v>
       </c>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>237</v>
+        <v>67</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>212</v>
+        <v>69</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>501</v>
+        <v>433</v>
       </c>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>244</v>
+        <v>443</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B229" s="16" t="s">
-        <v>543</v>
+        <v>223</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>267</v>
+        <v>542</v>
+      </c>
+      <c r="B230" s="16" t="s">
+        <v>543</v>
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>84</v>
+        <v>291</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>90</v>
+        <v>430</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>444</v>
+        <v>90</v>
       </c>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>91</v>
+        <v>444</v>
       </c>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>307</v>
+        <v>95</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>445</v>
+        <v>91</v>
       </c>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>285</v>
+        <v>445</v>
       </c>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B249" s="16" t="s">
-        <v>521</v>
+        <v>233</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>271</v>
+        <v>520</v>
+      </c>
+      <c r="B250" s="16" t="s">
+        <v>521</v>
       </c>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B251" s="16" t="s">
-        <v>535</v>
+        <v>115</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B252" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>272</v>
+        <v>523</v>
+      </c>
+      <c r="B253" s="16" t="s">
+        <v>536</v>
       </c>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B255" s="16" t="s">
-        <v>525</v>
+        <v>314</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B256" s="16" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B257" s="16" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B258" s="16" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B259" s="16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B260" s="16" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B261" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B262" s="16" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>177</v>
+        <v>534</v>
+      </c>
+      <c r="B263" s="16" t="s">
+        <v>541</v>
       </c>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B269" s="21" t="s">
-        <v>446</v>
+        <v>274</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B270" s="21"/>
+        <v>96</v>
+      </c>
+      <c r="B270" s="22" t="s">
+        <v>446</v>
+      </c>
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B271" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="B271" s="22"/>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B272" s="21"/>
+        <v>98</v>
+      </c>
+      <c r="B272" s="22"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B273" s="21"/>
+        <v>99</v>
+      </c>
+      <c r="B273" s="22"/>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B274" s="21"/>
+        <v>100</v>
+      </c>
+      <c r="B274" s="22"/>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B275" s="21"/>
+        <v>101</v>
+      </c>
+      <c r="B275" s="22"/>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B276" s="21"/>
+        <v>102</v>
+      </c>
+      <c r="B276" s="22"/>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B277" s="21"/>
+        <v>103</v>
+      </c>
+      <c r="B277" s="22"/>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B278" s="21"/>
+        <v>104</v>
+      </c>
+      <c r="B278" s="22"/>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B279" s="21"/>
+        <v>105</v>
+      </c>
+      <c r="B279" s="22"/>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B280" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="B280" s="22"/>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B281" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="B281" s="22"/>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B282" s="21"/>
+        <v>108</v>
+      </c>
+      <c r="B282" s="22"/>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B283" s="21"/>
+        <v>109</v>
+      </c>
+      <c r="B283" s="22"/>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B284" s="21"/>
+        <v>110</v>
+      </c>
+      <c r="B284" s="22"/>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B285" s="22"/>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>447</v>
+        <v>113</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B290" s="21" t="s">
-        <v>450</v>
+        <v>239</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>448</v>
       </c>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B291" s="21"/>
+        <v>275</v>
+      </c>
+      <c r="B291" s="22" t="s">
+        <v>450</v>
+      </c>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B292" s="21"/>
+        <v>278</v>
+      </c>
+      <c r="B292" s="22"/>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B293" s="21"/>
+        <v>276</v>
+      </c>
+      <c r="B293" s="22"/>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B294" s="21"/>
+        <v>277</v>
+      </c>
+      <c r="B294" s="22"/>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B295" s="21"/>
+        <v>280</v>
+      </c>
+      <c r="B295" s="22"/>
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B296" s="20" t="s">
-        <v>451</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B296" s="22"/>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B297" s="20"/>
+        <v>317</v>
+      </c>
+      <c r="B297" s="21" t="s">
+        <v>451</v>
+      </c>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B298" s="20"/>
+        <v>318</v>
+      </c>
+      <c r="B298" s="21"/>
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B299" s="19" t="s">
-        <v>452</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B299" s="21"/>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B300" s="19"/>
+        <v>320</v>
+      </c>
+      <c r="B300" s="20" t="s">
+        <v>452</v>
+      </c>
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B301" s="19"/>
+        <v>321</v>
+      </c>
+      <c r="B301" s="20"/>
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B302" s="19"/>
+        <v>322</v>
+      </c>
+      <c r="B302" s="20"/>
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B303" s="19"/>
+        <v>323</v>
+      </c>
+      <c r="B303" s="20"/>
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B304" s="19"/>
+        <v>324</v>
+      </c>
+      <c r="B304" s="20"/>
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B305" s="19"/>
+        <v>326</v>
+      </c>
+      <c r="B305" s="20"/>
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B306" s="19"/>
+        <v>325</v>
+      </c>
+      <c r="B306" s="20"/>
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B307" s="19"/>
+        <v>327</v>
+      </c>
+      <c r="B307" s="20"/>
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B308" s="19"/>
+        <v>328</v>
+      </c>
+      <c r="B308" s="20"/>
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>453</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="B309" s="20"/>
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>511</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C311" s="5"/>
+      <c r="D311" s="5"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="B316" s="1" t="s">
         <v>519</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B299:B308"/>
-    <mergeCell ref="B296:B298"/>
-    <mergeCell ref="B77:B84"/>
-    <mergeCell ref="B99:B104"/>
-    <mergeCell ref="B269:B284"/>
-    <mergeCell ref="B290:B295"/>
+    <mergeCell ref="B300:B309"/>
+    <mergeCell ref="B297:B299"/>
+    <mergeCell ref="B78:B85"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="B270:B285"/>
+    <mergeCell ref="B291:B296"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>

--- a/Standardized 2.9/v2.9_tags_descriptions.xlsx
+++ b/Standardized 2.9/v2.9_tags_descriptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\GitHub\Standardized_XML\Standardized 2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270A02BD-D307-451F-880B-DC7D5258F35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E64D4D-215D-41A9-939B-FFB35AD3E1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-28920" yWindow="-2820" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="559">
   <si>
     <t>SP</t>
   </si>
@@ -1697,6 +1697,18 @@
   </si>
   <si>
     <t>Intestinal digestibility of RUP expressed as percent of RUP</t>
+  </si>
+  <si>
+    <t>TAA</t>
+  </si>
+  <si>
+    <t>Total amino acids</t>
+  </si>
+  <si>
+    <t>TAA_CP</t>
+  </si>
+  <si>
+    <t>Total amino acids as percent of Crude Protein</t>
   </si>
 </sst>
 </file>
@@ -1789,52 +1801,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1855,9 +1851,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1895,9 +1891,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1930,26 +1926,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1982,26 +1961,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2175,10 +2137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K316"/>
+  <dimension ref="A1:K318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2187,59 +2149,58 @@
     <col min="2" max="2" width="93" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.453125" style="1" customWidth="1"/>
     <col min="4" max="4" width="93" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>43678</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11"/>
+      <c r="D11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2248,8 +2209,8 @@
       <c r="B12" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12"/>
+      <c r="D12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2258,8 +2219,8 @@
       <c r="B13" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="C13"/>
+      <c r="D13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2268,9 +2229,9 @@
       <c r="B14" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="10"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2279,20 +2240,20 @@
       <c r="B15" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="10"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="10"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -2301,9 +2262,9 @@
       <c r="B17" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="10"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2312,9 +2273,9 @@
       <c r="B18" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="10"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2323,9 +2284,9 @@
       <c r="B19" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="10"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2334,9 +2295,9 @@
       <c r="B20" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="10"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -2345,9 +2306,9 @@
       <c r="B21" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="10"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -2356,20 +2317,20 @@
       <c r="B22" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="10"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="10"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -2378,9 +2339,9 @@
       <c r="B24" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="10"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -2389,9 +2350,9 @@
       <c r="B25" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="10"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -2400,9 +2361,9 @@
       <c r="B26" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="10"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -2411,9 +2372,9 @@
       <c r="B27" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="10"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -2422,8 +2383,8 @@
       <c r="B28" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="C28"/>
+      <c r="D28"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2431,11 +2392,11 @@
         <v>0</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="C29"/>
+      <c r="D29"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -2450,11 +2411,11 @@
       <c r="B31" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="C31"/>
+      <c r="D31"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -2469,8 +2430,8 @@
       <c r="B33" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="C33"/>
+      <c r="D33"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2480,8 +2441,8 @@
       <c r="B34" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="C34"/>
+      <c r="D34"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -2490,8 +2451,8 @@
       <c r="B35" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="C35"/>
+      <c r="D35"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -2500,8 +2461,8 @@
       <c r="B36" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="C36"/>
+      <c r="D36"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2511,8 +2472,8 @@
       <c r="B37" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="C37"/>
+      <c r="D37"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2522,8 +2483,8 @@
       <c r="B38" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="C38"/>
+      <c r="D38"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2533,8 +2494,8 @@
       <c r="B39" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="C39"/>
+      <c r="D39"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2544,8 +2505,8 @@
       <c r="B40" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="C40"/>
+      <c r="D40"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -2554,20 +2515,20 @@
       <c r="B41" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="12"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="12"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -2576,9 +2537,9 @@
       <c r="B43" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="12"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -2587,8 +2548,8 @@
       <c r="B44" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="C44"/>
+      <c r="D44"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -2597,9 +2558,9 @@
       <c r="B45" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="12"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -2608,8 +2569,8 @@
       <c r="B46" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="C46"/>
+      <c r="D46"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -2618,8 +2579,8 @@
       <c r="B47" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="C47"/>
+      <c r="D47"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -2628,8 +2589,8 @@
       <c r="B48" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="C48"/>
+      <c r="D48"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -2638,8 +2599,8 @@
       <c r="B49" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="C49"/>
+      <c r="D49"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -2648,8 +2609,8 @@
       <c r="B50" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="C50"/>
+      <c r="D50"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -2658,8 +2619,8 @@
       <c r="B51" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="C51"/>
+      <c r="D51"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -2668,8 +2629,8 @@
       <c r="B52" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="C52"/>
+      <c r="D52"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -2678,8 +2639,8 @@
       <c r="B53" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="C53"/>
+      <c r="D53"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -2688,8 +2649,8 @@
       <c r="B54" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="C54"/>
+      <c r="D54"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -2698,8 +2659,8 @@
       <c r="B55" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="C55"/>
+      <c r="D55"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -2708,8 +2669,8 @@
       <c r="B56" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="C56"/>
+      <c r="D56"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -2718,15 +2679,15 @@
       <c r="B57" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -2735,8 +2696,8 @@
       <c r="B58" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
+      <c r="C58"/>
+      <c r="D58"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -2745,8 +2706,8 @@
       <c r="B59" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
+      <c r="C59"/>
+      <c r="D59"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -2755,8 +2716,8 @@
       <c r="B60" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="C60"/>
+      <c r="D60"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -2765,8 +2726,8 @@
       <c r="B61" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="C61"/>
+      <c r="D61"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2775,8 +2736,8 @@
       <c r="B62" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
+      <c r="C62"/>
+      <c r="D62"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -2785,8 +2746,8 @@
       <c r="B63" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="C63"/>
+      <c r="D63"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -2795,7 +2756,7 @@
       <c r="B64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="5"/>
+      <c r="C64"/>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2805,7 +2766,7 @@
       <c r="B65" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C65" s="8"/>
+      <c r="C65" s="6"/>
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2815,8 +2776,8 @@
       <c r="B66" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="12"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -2825,8 +2786,8 @@
       <c r="B67" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="14"/>
+      <c r="C67"/>
+      <c r="D67" s="12"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -2835,7 +2796,7 @@
       <c r="B68" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C68" s="5"/>
+      <c r="C68"/>
       <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2845,7 +2806,7 @@
       <c r="B69" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C69" s="5"/>
+      <c r="C69"/>
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2855,7 +2816,7 @@
       <c r="B70" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C70" s="5"/>
+      <c r="C70"/>
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2865,8 +2826,8 @@
       <c r="B71" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
+      <c r="C71"/>
+      <c r="D71"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -2875,8 +2836,8 @@
       <c r="B72" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
+      <c r="C72"/>
+      <c r="D72"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -2885,8 +2846,8 @@
       <c r="B73" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="C73"/>
+      <c r="D73"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -2895,8 +2856,8 @@
       <c r="B74" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
+      <c r="C74"/>
+      <c r="D74"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -2905,8 +2866,8 @@
       <c r="B75" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+      <c r="C75"/>
+      <c r="D75"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -2915,8 +2876,8 @@
       <c r="B76" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
+      <c r="C76"/>
+      <c r="D76"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -2925,94 +2886,94 @@
       <c r="B77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
+      <c r="C77"/>
+      <c r="D77"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
+      <c r="C78"/>
+      <c r="D78"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
+      <c r="B79" s="16"/>
+      <c r="C79"/>
+      <c r="D79"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B80" s="22"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
+      <c r="B80" s="16"/>
+      <c r="C80"/>
+      <c r="D80"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B81" s="22"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
+      <c r="B81" s="16"/>
+      <c r="C81"/>
+      <c r="D81"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
+      <c r="B82" s="16"/>
+      <c r="C82"/>
+      <c r="D82"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B83" s="22"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
+      <c r="B83" s="16"/>
+      <c r="C83"/>
+      <c r="D83"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
+      <c r="B84" s="16"/>
+      <c r="C84"/>
+      <c r="D84"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B85" s="22"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
+      <c r="B85" s="16"/>
+      <c r="C85"/>
+      <c r="D85"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
+      <c r="C86"/>
+      <c r="D86"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
+      <c r="C87"/>
+      <c r="D87"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -3021,8 +2982,8 @@
       <c r="B88" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
+      <c r="C88"/>
+      <c r="D88"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -3031,8 +2992,8 @@
       <c r="B89" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
+      <c r="C89"/>
+      <c r="D89"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
@@ -3041,8 +3002,8 @@
       <c r="B90" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
+      <c r="C90"/>
+      <c r="D90"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
@@ -3051,8 +3012,8 @@
       <c r="B91" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
+      <c r="C91"/>
+      <c r="D91"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -3061,8 +3022,8 @@
       <c r="B92" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
+      <c r="C92"/>
+      <c r="D92"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
@@ -3071,8 +3032,8 @@
       <c r="B93" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
+      <c r="C93"/>
+      <c r="D93"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -3081,8 +3042,8 @@
       <c r="B94" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
+      <c r="C94"/>
+      <c r="D94"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
@@ -3091,8 +3052,8 @@
       <c r="B95" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
+      <c r="C95"/>
+      <c r="D95"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -3101,8 +3062,8 @@
       <c r="B96" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
+      <c r="C96"/>
+      <c r="D96"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -3111,8 +3072,8 @@
       <c r="B97" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
+      <c r="C97"/>
+      <c r="D97"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -3121,8 +3082,8 @@
       <c r="B98" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
+      <c r="C98"/>
+      <c r="D98"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -3131,52 +3092,52 @@
       <c r="B99" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
+      <c r="C99"/>
+      <c r="D99"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
+      <c r="C100"/>
+      <c r="D100"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
+      <c r="B101" s="16"/>
+      <c r="C101"/>
+      <c r="D101"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B102" s="22"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
+      <c r="B102" s="16"/>
+      <c r="C102"/>
+      <c r="D102"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="22"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
+      <c r="B103" s="16"/>
+      <c r="C103"/>
+      <c r="D103"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="22"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
+      <c r="B104" s="16"/>
+      <c r="C104"/>
+      <c r="D104"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B105" s="22"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
+      <c r="B105" s="16"/>
+      <c r="C105"/>
+      <c r="D105"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -3185,8 +3146,8 @@
       <c r="B106" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
+      <c r="C106"/>
+      <c r="D106"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
@@ -3195,8 +3156,8 @@
       <c r="B107" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
+      <c r="C107"/>
+      <c r="D107"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -3205,8 +3166,8 @@
       <c r="B108" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
+      <c r="C108"/>
+      <c r="D108"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
@@ -3215,8 +3176,8 @@
       <c r="B109" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
+      <c r="C109"/>
+      <c r="D109"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -3225,8 +3186,8 @@
       <c r="B110" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
+      <c r="C110"/>
+      <c r="D110"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
@@ -3235,8 +3196,8 @@
       <c r="B111" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
+      <c r="C111"/>
+      <c r="D111"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -3245,1986 +3206,2006 @@
       <c r="B112" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
+      <c r="C112"/>
+      <c r="D112"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>11</v>
+        <v>555</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
+        <v>556</v>
+      </c>
+      <c r="C113"/>
+      <c r="D113"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>12</v>
+        <v>557</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
+        <v>558</v>
+      </c>
+      <c r="C114"/>
+      <c r="D114"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
+        <v>401</v>
+      </c>
+      <c r="C115"/>
+      <c r="D115"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
+        <v>402</v>
+      </c>
+      <c r="C116"/>
+      <c r="D116"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="G117" s="1"/>
+        <v>403</v>
+      </c>
+      <c r="C117"/>
+      <c r="D117"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
+        <v>404</v>
+      </c>
+      <c r="C118"/>
+      <c r="D118"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
+        <v>405</v>
+      </c>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
+        <v>406</v>
+      </c>
+      <c r="C120"/>
+      <c r="D120"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
+        <v>407</v>
+      </c>
+      <c r="C121"/>
+      <c r="D121"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
+        <v>408</v>
+      </c>
+      <c r="C122"/>
+      <c r="D122"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
+        <v>413</v>
+      </c>
+      <c r="C123"/>
+      <c r="D123"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
+        <v>414</v>
+      </c>
+      <c r="C124"/>
+      <c r="D124"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
+        <v>415</v>
+      </c>
+      <c r="C125"/>
+      <c r="D125"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
+        <v>416</v>
+      </c>
+      <c r="C126"/>
+      <c r="D126"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
+        <v>417</v>
+      </c>
+      <c r="C127"/>
+      <c r="D127"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
+        <v>418</v>
+      </c>
+      <c r="C128"/>
+      <c r="D128"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
+        <v>419</v>
+      </c>
+      <c r="C129"/>
+      <c r="D129"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
+        <v>420</v>
+      </c>
+      <c r="C130"/>
+      <c r="D130"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
+        <v>421</v>
+      </c>
+      <c r="C131"/>
+      <c r="D131"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
+        <v>422</v>
+      </c>
+      <c r="C132"/>
+      <c r="D132"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
+        <v>423</v>
+      </c>
+      <c r="C133"/>
+      <c r="D133"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
+        <v>424</v>
+      </c>
+      <c r="C134"/>
+      <c r="D134"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
+        <v>425</v>
+      </c>
+      <c r="C135"/>
+      <c r="D135"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
+        <v>426</v>
+      </c>
+      <c r="C136"/>
+      <c r="D136"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
+        <v>427</v>
+      </c>
+      <c r="C137"/>
+      <c r="D137"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
+        <v>455</v>
+      </c>
+      <c r="C138"/>
+      <c r="D138"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
+        <v>456</v>
+      </c>
+      <c r="C139"/>
+      <c r="D139"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
+        <v>457</v>
+      </c>
+      <c r="C140"/>
+      <c r="D140"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
+        <v>458</v>
+      </c>
+      <c r="C141"/>
+      <c r="D141"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
+        <v>459</v>
+      </c>
+      <c r="C142"/>
+      <c r="D142"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
+        <v>460</v>
+      </c>
+      <c r="C143"/>
+      <c r="D143"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
+        <v>461</v>
+      </c>
+      <c r="C144"/>
+      <c r="D144"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
+        <v>462</v>
+      </c>
+      <c r="C145"/>
+      <c r="D145"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
+        <v>463</v>
+      </c>
+      <c r="C146"/>
+      <c r="D146"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
+        <v>464</v>
+      </c>
+      <c r="C147"/>
+      <c r="D147"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
+        <v>465</v>
+      </c>
+      <c r="C148"/>
+      <c r="D148"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
+        <v>466</v>
+      </c>
+      <c r="C149"/>
+      <c r="D149"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
+        <v>467</v>
+      </c>
+      <c r="C150"/>
+      <c r="D150"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
+        <v>468</v>
+      </c>
+      <c r="C151"/>
+      <c r="D151"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
+        <v>469</v>
+      </c>
+      <c r="C152"/>
+      <c r="D152"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
+        <v>470</v>
+      </c>
+      <c r="C153"/>
+      <c r="D153"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
+        <v>471</v>
+      </c>
+      <c r="C154"/>
+      <c r="D154"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
+        <v>472</v>
+      </c>
+      <c r="C155"/>
+      <c r="D155"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
+        <v>473</v>
+      </c>
+      <c r="C156"/>
+      <c r="D156"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
+        <v>474</v>
+      </c>
+      <c r="C157"/>
+      <c r="D157"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
+        <v>475</v>
+      </c>
+      <c r="C158"/>
+      <c r="D158"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
+        <v>476</v>
+      </c>
+      <c r="C159"/>
+      <c r="D159"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
+        <v>477</v>
+      </c>
+      <c r="C160"/>
+      <c r="D160"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
+        <v>478</v>
+      </c>
+      <c r="C161"/>
+      <c r="D161"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
+        <v>479</v>
+      </c>
+      <c r="C162"/>
+      <c r="D162"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
+        <v>480</v>
+      </c>
+      <c r="C163"/>
+      <c r="D163"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
+        <v>481</v>
+      </c>
+      <c r="C164"/>
+      <c r="D164"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
+        <v>482</v>
+      </c>
+      <c r="C165"/>
+      <c r="D165"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
+        <v>483</v>
+      </c>
+      <c r="C166"/>
+      <c r="D166"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
+        <v>484</v>
+      </c>
+      <c r="C167"/>
+      <c r="D167"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
+        <v>485</v>
+      </c>
+      <c r="C168"/>
+      <c r="D168"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
+        <v>486</v>
+      </c>
+      <c r="C169"/>
+      <c r="D169"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
+        <v>487</v>
+      </c>
+      <c r="C170"/>
+      <c r="D170"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
+        <v>488</v>
+      </c>
+      <c r="C171"/>
+      <c r="D171"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
+        <v>489</v>
+      </c>
+      <c r="C172"/>
+      <c r="D172"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
+        <v>490</v>
+      </c>
+      <c r="C173"/>
+      <c r="D173"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
+        <v>491</v>
+      </c>
+      <c r="C174"/>
+      <c r="D174"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
+        <v>492</v>
+      </c>
+      <c r="C175"/>
+      <c r="D175"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
+        <v>493</v>
+      </c>
+      <c r="C176"/>
+      <c r="D176"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
+        <v>494</v>
+      </c>
+      <c r="C177"/>
+      <c r="D177"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
+        <v>495</v>
+      </c>
+      <c r="C178"/>
+      <c r="D178"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
+        <v>496</v>
+      </c>
+      <c r="C179"/>
+      <c r="D179"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
+        <v>497</v>
+      </c>
+      <c r="C180"/>
+      <c r="D180"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
+        <v>498</v>
+      </c>
+      <c r="C181"/>
+      <c r="D181"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
+        <v>499</v>
+      </c>
+      <c r="C182"/>
+      <c r="D182"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
+        <v>500</v>
+      </c>
+      <c r="C183"/>
+      <c r="D183"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
+        <v>428</v>
+      </c>
+      <c r="C184"/>
+      <c r="D184"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
+        <v>429</v>
+      </c>
+      <c r="C185"/>
+      <c r="D185"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
+        <v>431</v>
+      </c>
+      <c r="C186"/>
+      <c r="D186"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
+        <v>432</v>
+      </c>
+      <c r="C187"/>
+      <c r="D187"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
+        <v>434</v>
+      </c>
+      <c r="C188"/>
+      <c r="D188"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
+        <v>435</v>
+      </c>
+      <c r="C189"/>
+      <c r="D189"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>237</v>
+        <v>66</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
+        <v>436</v>
+      </c>
+      <c r="C190"/>
+      <c r="D190"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>242</v>
+        <v>67</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
+        <v>437</v>
+      </c>
+      <c r="C191"/>
+      <c r="D191"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>68</v>
+        <v>237</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
+        <v>438</v>
+      </c>
+      <c r="C192"/>
+      <c r="D192"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>69</v>
+        <v>242</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
+        <v>439</v>
+      </c>
+      <c r="C193"/>
+      <c r="D193"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>212</v>
+        <v>68</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
+        <v>440</v>
+      </c>
+      <c r="C194"/>
+      <c r="D194"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
+        <v>441</v>
+      </c>
+      <c r="C195"/>
+      <c r="D195"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
+        <v>433</v>
+      </c>
+      <c r="C196"/>
+      <c r="D196"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
+        <v>501</v>
+      </c>
+      <c r="C197"/>
+      <c r="D197"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
+        <v>502</v>
+      </c>
+      <c r="C198"/>
+      <c r="D198"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
+        <v>503</v>
+      </c>
+      <c r="C199"/>
+      <c r="D199"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>243</v>
+        <v>73</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
+        <v>504</v>
+      </c>
+      <c r="C200"/>
+      <c r="D200"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
+        <v>505</v>
+      </c>
+      <c r="C201"/>
+      <c r="D201"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
+        <v>506</v>
+      </c>
+      <c r="C202"/>
+      <c r="D202"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
+        <v>507</v>
+      </c>
+      <c r="C203"/>
+      <c r="D203"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C204" s="5"/>
-      <c r="D204" s="5"/>
+        <v>508</v>
+      </c>
+      <c r="C204"/>
+      <c r="D204"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
+        <v>509</v>
+      </c>
+      <c r="C205"/>
+      <c r="D205"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C206" s="5"/>
-      <c r="D206" s="5"/>
+        <v>442</v>
+      </c>
+      <c r="C206"/>
+      <c r="D206"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
+        <v>443</v>
+      </c>
+      <c r="C207"/>
+      <c r="D207"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
+        <v>244</v>
+      </c>
+      <c r="C208"/>
+      <c r="D208"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
+        <v>245</v>
+      </c>
+      <c r="C209"/>
+      <c r="D209"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
+        <v>246</v>
+      </c>
+      <c r="C210"/>
+      <c r="D210"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
+        <v>247</v>
+      </c>
+      <c r="C211"/>
+      <c r="D211"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C212" s="5"/>
-      <c r="D212" s="5"/>
+        <v>248</v>
+      </c>
+      <c r="C212"/>
+      <c r="D212"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
+        <v>249</v>
+      </c>
+      <c r="C213"/>
+      <c r="D213"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
+        <v>290</v>
+      </c>
+      <c r="C214"/>
+      <c r="D214"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C215" s="5"/>
-      <c r="D215" s="5"/>
+        <v>250</v>
+      </c>
+      <c r="C215"/>
+      <c r="D215"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
+        <v>251</v>
+      </c>
+      <c r="C216"/>
+      <c r="D216"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
+        <v>252</v>
+      </c>
+      <c r="C217"/>
+      <c r="D217"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
+        <v>253</v>
+      </c>
+      <c r="C218"/>
+      <c r="D218"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
+        <v>254</v>
+      </c>
+      <c r="C219"/>
+      <c r="D219"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C220" s="5"/>
-      <c r="D220" s="5"/>
+        <v>255</v>
+      </c>
+      <c r="C220"/>
+      <c r="D220"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C221" s="5"/>
-      <c r="D221" s="5"/>
+        <v>256</v>
+      </c>
+      <c r="C221"/>
+      <c r="D221"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>216</v>
+        <v>34</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C222" s="5"/>
-      <c r="D222" s="5"/>
+        <v>257</v>
+      </c>
+      <c r="C222"/>
+      <c r="D222"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C223" s="5"/>
-      <c r="D223" s="5"/>
+        <v>258</v>
+      </c>
+      <c r="C223"/>
+      <c r="D223"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C224" s="5"/>
-      <c r="D224" s="5"/>
+        <v>259</v>
+      </c>
+      <c r="C224"/>
+      <c r="D224"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C225" s="5"/>
-      <c r="D225" s="5"/>
+        <v>260</v>
+      </c>
+      <c r="C225"/>
+      <c r="D225"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C226" s="5"/>
-      <c r="D226" s="5"/>
+        <v>261</v>
+      </c>
+      <c r="C226"/>
+      <c r="D226"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C227" s="5"/>
-      <c r="D227" s="5"/>
+        <v>262</v>
+      </c>
+      <c r="C227"/>
+      <c r="D227"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C228" s="5"/>
-      <c r="D228" s="5"/>
+        <v>263</v>
+      </c>
+      <c r="C228"/>
+      <c r="D228"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C229" s="5"/>
-      <c r="D229" s="5"/>
+        <v>264</v>
+      </c>
+      <c r="C229"/>
+      <c r="D229"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B230" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="C230" s="5"/>
-      <c r="D230" s="5"/>
+        <v>222</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C230"/>
+      <c r="D230"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>291</v>
+        <v>223</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C231" s="5"/>
-      <c r="D231" s="5"/>
+        <v>266</v>
+      </c>
+      <c r="C231"/>
+      <c r="D231"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>84</v>
+        <v>542</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C232" s="5"/>
-      <c r="D232" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="C232"/>
+      <c r="D232"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>85</v>
+        <v>291</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C233" s="5"/>
-      <c r="D233" s="5"/>
+        <v>267</v>
+      </c>
+      <c r="C233"/>
+      <c r="D233"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C234" s="5"/>
-      <c r="D234" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="C234"/>
+      <c r="D234"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C235" s="5"/>
-      <c r="D235" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="C235"/>
+      <c r="D235"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C236" s="5"/>
-      <c r="D236" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="C236"/>
+      <c r="D236"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C237" s="5"/>
-      <c r="D237" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C237"/>
+      <c r="D237"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C238" s="5"/>
-      <c r="D238" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="C238"/>
+      <c r="D238"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C239" s="5"/>
-      <c r="D239" s="5"/>
+        <v>83</v>
+      </c>
+      <c r="C239"/>
+      <c r="D239"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="C240" s="5"/>
-      <c r="D240" s="5"/>
+        <v>430</v>
+      </c>
+      <c r="C240"/>
+      <c r="D240"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C241" s="5"/>
-      <c r="D241" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="C241"/>
+      <c r="D241"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>307</v>
+        <v>94</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C242" s="5"/>
-      <c r="D242" s="5"/>
+        <v>444</v>
+      </c>
+      <c r="C242"/>
+      <c r="D242"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>308</v>
+        <v>95</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C243" s="5"/>
-      <c r="D243" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="C243"/>
+      <c r="D243"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C244" s="5"/>
-      <c r="D244" s="5"/>
+        <v>445</v>
+      </c>
+      <c r="C244"/>
+      <c r="D244"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C245" s="5"/>
-      <c r="D245" s="5"/>
+        <v>285</v>
+      </c>
+      <c r="C245"/>
+      <c r="D245"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C246" s="5"/>
-      <c r="D246" s="5"/>
+        <v>286</v>
+      </c>
+      <c r="C246"/>
+      <c r="D246"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C247" s="5"/>
-      <c r="D247" s="5"/>
+        <v>287</v>
+      </c>
+      <c r="C247"/>
+      <c r="D247"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>232</v>
+        <v>311</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C248" s="5"/>
-      <c r="D248" s="5"/>
+        <v>288</v>
+      </c>
+      <c r="C248"/>
+      <c r="D248"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>233</v>
+        <v>312</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C249" s="5"/>
-      <c r="D249" s="5"/>
+        <v>268</v>
+      </c>
+      <c r="C249"/>
+      <c r="D249"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B250" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="C250" s="5"/>
-      <c r="D250" s="5"/>
+        <v>232</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C250"/>
+      <c r="D250"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C251" s="5"/>
-      <c r="D251" s="5"/>
+        <v>270</v>
+      </c>
+      <c r="C251"/>
+      <c r="D251"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B252" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="C252" s="5"/>
-      <c r="D252" s="5"/>
+        <v>520</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C252"/>
+      <c r="D252"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B253" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="C253" s="5"/>
-      <c r="D253" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C253"/>
+      <c r="D253"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>313</v>
+        <v>522</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C254" s="5"/>
-      <c r="D254" s="5"/>
+        <v>535</v>
+      </c>
+      <c r="C254"/>
+      <c r="D254"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>314</v>
+        <v>523</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C255" s="5"/>
-      <c r="D255" s="5"/>
+        <v>536</v>
+      </c>
+      <c r="C255"/>
+      <c r="D255"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B256" s="16" t="s">
-        <v>525</v>
-      </c>
-      <c r="C256" s="5"/>
-      <c r="D256" s="5"/>
+        <v>313</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C256"/>
+      <c r="D256"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B257" s="16" t="s">
-        <v>527</v>
-      </c>
-      <c r="C257" s="5"/>
-      <c r="D257" s="5"/>
+        <v>314</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C257"/>
+      <c r="D257"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B258" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="C258" s="5"/>
-      <c r="D258" s="5"/>
+        <v>524</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C258"/>
+      <c r="D258"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B259" s="16" t="s">
-        <v>540</v>
-      </c>
-      <c r="C259" s="5"/>
-      <c r="D259" s="5"/>
+        <v>526</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C259"/>
+      <c r="D259"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B260" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="C260" s="5"/>
-      <c r="D260" s="5"/>
+        <v>528</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C260"/>
+      <c r="D260"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B261" s="16" t="s">
-        <v>537</v>
-      </c>
-      <c r="C261" s="5"/>
-      <c r="D261" s="5"/>
+        <v>530</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C261"/>
+      <c r="D261"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B262" s="16" t="s">
-        <v>538</v>
-      </c>
-      <c r="C262" s="5"/>
-      <c r="D262" s="5"/>
+        <v>531</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C262"/>
+      <c r="D262"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B263" s="16" t="s">
-        <v>541</v>
-      </c>
-      <c r="C263" s="5"/>
-      <c r="D263" s="5"/>
+        <v>532</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C263"/>
+      <c r="D263"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>224</v>
+        <v>533</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C264" s="5"/>
-      <c r="D264" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="C264"/>
+      <c r="D264"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>225</v>
+        <v>534</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C265" s="5"/>
-      <c r="D265" s="5"/>
+        <v>541</v>
+      </c>
+      <c r="C265"/>
+      <c r="D265"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C266" s="5"/>
-      <c r="D266" s="5"/>
+        <v>177</v>
+      </c>
+      <c r="C266"/>
+      <c r="D266"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C267" s="5"/>
-      <c r="D267" s="5"/>
+        <v>178</v>
+      </c>
+      <c r="C267"/>
+      <c r="D267"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C268" s="5"/>
-      <c r="D268" s="5"/>
+        <v>179</v>
+      </c>
+      <c r="C268"/>
+      <c r="D268"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C269" s="5"/>
-      <c r="D269" s="5"/>
+        <v>181</v>
+      </c>
+      <c r="C269"/>
+      <c r="D269"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B270" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="C270" s="5"/>
-      <c r="D270" s="5"/>
+        <v>189</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C270"/>
+      <c r="D270"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B271" s="22"/>
-      <c r="C271" s="5"/>
-      <c r="D271" s="5"/>
+        <v>274</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C271"/>
+      <c r="D271"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B272" s="22"/>
-      <c r="C272" s="5"/>
-      <c r="D272" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="B272" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="C272"/>
+      <c r="D272"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B273" s="22"/>
-      <c r="C273" s="5"/>
-      <c r="D273" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="B273" s="16"/>
+      <c r="C273"/>
+      <c r="D273"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B274" s="22"/>
-      <c r="C274" s="5"/>
-      <c r="D274" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="B274" s="16"/>
+      <c r="C274"/>
+      <c r="D274"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B275" s="22"/>
-      <c r="C275" s="5"/>
-      <c r="D275" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="B275" s="16"/>
+      <c r="C275"/>
+      <c r="D275"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B276" s="22"/>
-      <c r="C276" s="5"/>
-      <c r="D276" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="B276" s="16"/>
+      <c r="C276"/>
+      <c r="D276"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B277" s="22"/>
-      <c r="C277" s="5"/>
-      <c r="D277" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="B277" s="16"/>
+      <c r="C277"/>
+      <c r="D277"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B278" s="22"/>
-      <c r="C278" s="5"/>
-      <c r="D278" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="B278" s="16"/>
+      <c r="C278"/>
+      <c r="D278"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B279" s="22"/>
-      <c r="C279" s="5"/>
-      <c r="D279" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="B279" s="16"/>
+      <c r="C279"/>
+      <c r="D279"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B280" s="22"/>
-      <c r="C280" s="5"/>
-      <c r="D280" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="B280" s="16"/>
+      <c r="C280"/>
+      <c r="D280"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B281" s="22"/>
-      <c r="C281" s="5"/>
-      <c r="D281" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="B281" s="16"/>
+      <c r="C281"/>
+      <c r="D281"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B282" s="22"/>
-      <c r="C282" s="5"/>
-      <c r="D282" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="B282" s="16"/>
+      <c r="C282"/>
+      <c r="D282"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B283" s="22"/>
-      <c r="C283" s="5"/>
-      <c r="D283" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="B283" s="16"/>
+      <c r="C283"/>
+      <c r="D283"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B284" s="22"/>
-      <c r="C284" s="5"/>
-      <c r="D284" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="B284" s="16"/>
+      <c r="C284"/>
+      <c r="D284"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B285" s="22"/>
-      <c r="C285" s="5"/>
-      <c r="D285" s="5"/>
+        <v>109</v>
+      </c>
+      <c r="B285" s="16"/>
+      <c r="C285"/>
+      <c r="D285"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C286" s="5"/>
-      <c r="D286" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="B286" s="16"/>
+      <c r="C286"/>
+      <c r="D286"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C287" s="5"/>
-      <c r="D287" s="5"/>
+        <v>111</v>
+      </c>
+      <c r="B287" s="16"/>
+      <c r="C287"/>
+      <c r="D287"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B288" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C288" s="5"/>
-      <c r="D288" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C288"/>
+      <c r="D288"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C289" s="5"/>
-      <c r="D289" s="5"/>
+        <v>113</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C289"/>
+      <c r="D289"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C290" s="5"/>
-      <c r="D290" s="5"/>
+        <v>114</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C290"/>
+      <c r="D290"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B291" s="22" t="s">
-        <v>450</v>
-      </c>
-      <c r="C291" s="5"/>
-      <c r="D291" s="5"/>
+        <v>238</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C291"/>
+      <c r="D291"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B292" s="22"/>
-      <c r="C292" s="5"/>
-      <c r="D292" s="5"/>
+        <v>239</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C292"/>
+      <c r="D292"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B293" s="22"/>
-      <c r="C293" s="5"/>
-      <c r="D293" s="5"/>
+        <v>275</v>
+      </c>
+      <c r="B293" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="C293"/>
+      <c r="D293"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B294" s="22"/>
-      <c r="C294" s="5"/>
-      <c r="D294" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="B294" s="16"/>
+      <c r="C294"/>
+      <c r="D294"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B295" s="22"/>
-      <c r="C295" s="5"/>
-      <c r="D295" s="5"/>
+        <v>276</v>
+      </c>
+      <c r="B295" s="16"/>
+      <c r="C295"/>
+      <c r="D295"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B296" s="22"/>
-      <c r="C296" s="5"/>
-      <c r="D296" s="5"/>
+        <v>277</v>
+      </c>
+      <c r="B296" s="16"/>
+      <c r="C296"/>
+      <c r="D296"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B297" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="C297" s="5"/>
-      <c r="D297" s="5"/>
+        <v>280</v>
+      </c>
+      <c r="B297" s="16"/>
+      <c r="C297"/>
+      <c r="D297"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B298" s="21"/>
-      <c r="C298" s="5"/>
-      <c r="D298" s="5"/>
+        <v>279</v>
+      </c>
+      <c r="B298" s="16"/>
+      <c r="C298"/>
+      <c r="D298"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B299" s="21"/>
-      <c r="C299" s="5"/>
-      <c r="D299" s="5"/>
+        <v>317</v>
+      </c>
+      <c r="B299" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="C299"/>
+      <c r="D299"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B300" s="20" t="s">
-        <v>452</v>
-      </c>
-      <c r="C300" s="5"/>
-      <c r="D300" s="5"/>
+        <v>318</v>
+      </c>
+      <c r="B300" s="15"/>
+      <c r="C300"/>
+      <c r="D300"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B301" s="20"/>
-      <c r="C301" s="5"/>
-      <c r="D301" s="5"/>
+        <v>319</v>
+      </c>
+      <c r="B301" s="15"/>
+      <c r="C301"/>
+      <c r="D301"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B302" s="20"/>
-      <c r="C302" s="5"/>
-      <c r="D302" s="5"/>
+        <v>320</v>
+      </c>
+      <c r="B302" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="C302"/>
+      <c r="D302"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B303" s="20"/>
-      <c r="C303" s="5"/>
-      <c r="D303" s="5"/>
+        <v>321</v>
+      </c>
+      <c r="B303" s="14"/>
+      <c r="C303"/>
+      <c r="D303"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B304" s="20"/>
-      <c r="C304" s="5"/>
-      <c r="D304" s="5"/>
+        <v>322</v>
+      </c>
+      <c r="B304" s="14"/>
+      <c r="C304"/>
+      <c r="D304"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B305" s="20"/>
-      <c r="C305" s="5"/>
-      <c r="D305" s="5"/>
+        <v>323</v>
+      </c>
+      <c r="B305" s="14"/>
+      <c r="C305"/>
+      <c r="D305"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B306" s="20"/>
-      <c r="C306" s="5"/>
-      <c r="D306" s="5"/>
+        <v>324</v>
+      </c>
+      <c r="B306" s="14"/>
+      <c r="C306"/>
+      <c r="D306"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B307" s="20"/>
-      <c r="C307" s="5"/>
-      <c r="D307" s="5"/>
+        <v>326</v>
+      </c>
+      <c r="B307" s="14"/>
+      <c r="C307"/>
+      <c r="D307"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B308" s="20"/>
-      <c r="C308" s="5"/>
-      <c r="D308" s="5"/>
+        <v>325</v>
+      </c>
+      <c r="B308" s="14"/>
+      <c r="C308"/>
+      <c r="D308"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B309" s="20"/>
-      <c r="C309" s="5"/>
-      <c r="D309" s="5"/>
+        <v>327</v>
+      </c>
+      <c r="B309" s="14"/>
+      <c r="C309"/>
+      <c r="D309"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C310" s="5"/>
-      <c r="D310" s="5"/>
+        <v>328</v>
+      </c>
+      <c r="B310" s="14"/>
+      <c r="C310"/>
+      <c r="D310"/>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C311" s="5"/>
-      <c r="D311" s="5"/>
+        <v>329</v>
+      </c>
+      <c r="B311" s="14"/>
+      <c r="C311"/>
+      <c r="D311"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>511</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C312"/>
+      <c r="D312"/>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>517</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C313"/>
+      <c r="D313"/>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="B318" s="1" t="s">
         <v>519</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B300:B309"/>
-    <mergeCell ref="B297:B299"/>
+    <mergeCell ref="B302:B311"/>
+    <mergeCell ref="B299:B301"/>
     <mergeCell ref="B78:B85"/>
     <mergeCell ref="B100:B105"/>
-    <mergeCell ref="B270:B285"/>
-    <mergeCell ref="B291:B296"/>
+    <mergeCell ref="B272:B287"/>
+    <mergeCell ref="B293:B298"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
